--- a/Financial Modelling Prep Library/Company Financial Data/BBBY/annual/balance_sheets.xlsx
+++ b/Financial Modelling Prep Library/Company Financial Data/BBBY/annual/balance_sheets.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="223">
   <si>
     <t>date</t>
   </si>
@@ -181,9 +181,6 @@
     <t>index</t>
   </si>
   <si>
-    <t>BBBY-FY-1992</t>
-  </si>
-  <si>
     <t>BBBY-FY-1993</t>
   </si>
   <si>
@@ -283,9 +280,6 @@
     <t>0000886158</t>
   </si>
   <si>
-    <t>1992-02-29</t>
-  </si>
-  <si>
     <t>1993-02-28</t>
   </si>
   <si>
@@ -376,9 +370,6 @@
     <t>2022-04-21</t>
   </si>
   <si>
-    <t>1992-02-28 19:00:00</t>
-  </si>
-  <si>
     <t>1993-02-27 19:00:00</t>
   </si>
   <si>
@@ -467,9 +458,6 @@
   </si>
   <si>
     <t>2022-04-21 16:44:19</t>
-  </si>
-  <si>
-    <t>1992</t>
   </si>
   <si>
     <t>1993</t>
@@ -1069,7 +1057,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BC32"/>
+  <dimension ref="A1:BC31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1247,52 +1235,52 @@
         <v>55</v>
       </c>
       <c r="B2" s="2">
-        <v>33663</v>
+        <v>34028</v>
       </c>
       <c r="C2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" t="s">
         <v>86</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>87</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>88</v>
       </c>
-      <c r="F2" t="s">
-        <v>89</v>
-      </c>
       <c r="G2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="I2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="J2">
-        <v>600000</v>
+        <v>10100000</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>600000</v>
+        <v>10100000</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>40600000</v>
+        <v>43100000</v>
       </c>
       <c r="O2">
-        <v>1400000</v>
+        <v>700000</v>
       </c>
       <c r="P2">
-        <v>42600000</v>
+        <v>53900000</v>
       </c>
       <c r="Q2">
-        <v>11900000</v>
+        <v>19600000</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -1310,19 +1298,19 @@
         <v>0</v>
       </c>
       <c r="W2">
-        <v>1000000</v>
+        <v>3200000</v>
       </c>
       <c r="X2">
-        <v>12900000</v>
+        <v>22800000</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>55500000</v>
+        <v>76700000</v>
       </c>
       <c r="AA2">
-        <v>7700000</v>
+        <v>9800000</v>
       </c>
       <c r="AB2">
         <v>0</v>
@@ -1334,13 +1322,13 @@
         <v>0</v>
       </c>
       <c r="AE2">
-        <v>3000000</v>
+        <v>9600000</v>
       </c>
       <c r="AF2">
-        <v>10700000</v>
+        <v>19400000</v>
       </c>
       <c r="AG2">
-        <v>11800000</v>
+        <v>0</v>
       </c>
       <c r="AH2">
         <v>0</v>
@@ -1349,10 +1337,10 @@
         <v>0</v>
       </c>
       <c r="AJ2">
-        <v>2100000</v>
+        <v>2700000</v>
       </c>
       <c r="AK2">
-        <v>13900000</v>
+        <v>2700000</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -1361,7 +1349,7 @@
         <v>0</v>
       </c>
       <c r="AN2">
-        <v>24600000</v>
+        <v>22100000</v>
       </c>
       <c r="AO2">
         <v>0</v>
@@ -1370,37 +1358,37 @@
         <v>0</v>
       </c>
       <c r="AQ2">
-        <v>30700000</v>
+        <v>13200000</v>
       </c>
       <c r="AR2">
-        <v>-5800000</v>
+        <v>-8500000</v>
       </c>
       <c r="AS2">
-        <v>6000000</v>
+        <v>49900000</v>
       </c>
       <c r="AT2">
-        <v>30900000</v>
+        <v>54600000</v>
       </c>
       <c r="AU2">
-        <v>30900000</v>
+        <v>54600000</v>
       </c>
       <c r="AV2">
-        <v>55500000</v>
+        <v>76700000</v>
       </c>
       <c r="AW2">
         <v>0</v>
       </c>
       <c r="AX2">
-        <v>55500000</v>
+        <v>76700000</v>
       </c>
       <c r="AY2">
         <v>0</v>
       </c>
       <c r="AZ2">
-        <v>11800000</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>11200000</v>
+        <v>-10100000</v>
       </c>
     </row>
     <row r="3" spans="1:55">
@@ -1408,52 +1396,52 @@
         <v>56</v>
       </c>
       <c r="B3" s="2">
-        <v>34028</v>
+        <v>34393</v>
       </c>
       <c r="C3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" t="s">
         <v>86</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>87</v>
       </c>
-      <c r="E3" t="s">
-        <v>88</v>
-      </c>
       <c r="F3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="J3">
-        <v>10100000</v>
+        <v>2700000</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>10100000</v>
+        <v>2700000</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>43100000</v>
+        <v>75000000</v>
       </c>
       <c r="O3">
-        <v>700000</v>
+        <v>4300000</v>
       </c>
       <c r="P3">
-        <v>53900000</v>
+        <v>82000000</v>
       </c>
       <c r="Q3">
-        <v>19600000</v>
+        <v>34900000</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -1471,19 +1459,19 @@
         <v>0</v>
       </c>
       <c r="W3">
-        <v>3200000</v>
+        <v>4600000</v>
       </c>
       <c r="X3">
-        <v>22800000</v>
+        <v>39500000</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>76700000</v>
+        <v>121500000</v>
       </c>
       <c r="AA3">
-        <v>9800000</v>
+        <v>17000000</v>
       </c>
       <c r="AB3">
         <v>0</v>
@@ -1495,13 +1483,13 @@
         <v>0</v>
       </c>
       <c r="AE3">
-        <v>9600000</v>
+        <v>10500000</v>
       </c>
       <c r="AF3">
-        <v>19400000</v>
+        <v>27500000</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>13300000</v>
       </c>
       <c r="AH3">
         <v>0</v>
@@ -1510,10 +1498,10 @@
         <v>0</v>
       </c>
       <c r="AJ3">
-        <v>2700000</v>
+        <v>3400000</v>
       </c>
       <c r="AK3">
-        <v>2700000</v>
+        <v>16700000</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -1522,7 +1510,7 @@
         <v>0</v>
       </c>
       <c r="AN3">
-        <v>22100000</v>
+        <v>44200000</v>
       </c>
       <c r="AO3">
         <v>0</v>
@@ -1531,37 +1519,37 @@
         <v>0</v>
       </c>
       <c r="AQ3">
-        <v>13200000</v>
+        <v>35000000</v>
       </c>
       <c r="AR3">
-        <v>-8500000</v>
+        <v>-12100000</v>
       </c>
       <c r="AS3">
-        <v>49900000</v>
+        <v>54400000</v>
       </c>
       <c r="AT3">
-        <v>54600000</v>
+        <v>77300000</v>
       </c>
       <c r="AU3">
-        <v>54600000</v>
+        <v>77300000</v>
       </c>
       <c r="AV3">
-        <v>76700000</v>
+        <v>121500000</v>
       </c>
       <c r="AW3">
         <v>0</v>
       </c>
       <c r="AX3">
-        <v>76700000</v>
+        <v>121500000</v>
       </c>
       <c r="AY3">
         <v>0</v>
       </c>
       <c r="AZ3">
-        <v>0</v>
+        <v>13300000</v>
       </c>
       <c r="BA3">
-        <v>-10100000</v>
+        <v>10600000</v>
       </c>
     </row>
     <row r="4" spans="1:55">
@@ -1569,52 +1557,52 @@
         <v>57</v>
       </c>
       <c r="B4" s="2">
-        <v>34393</v>
+        <v>34758</v>
       </c>
       <c r="C4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" t="s">
         <v>86</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>87</v>
       </c>
-      <c r="E4" t="s">
-        <v>88</v>
-      </c>
       <c r="F4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="I4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="J4">
-        <v>2700000</v>
+        <v>6500000</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>2700000</v>
+        <v>6500000</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>75000000</v>
+        <v>108400000</v>
       </c>
       <c r="O4">
-        <v>4300000</v>
+        <v>3100000</v>
       </c>
       <c r="P4">
-        <v>82000000</v>
+        <v>118000000</v>
       </c>
       <c r="Q4">
-        <v>34900000</v>
+        <v>52200000</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -1632,19 +1620,19 @@
         <v>0</v>
       </c>
       <c r="W4">
-        <v>4600000</v>
+        <v>6500000</v>
       </c>
       <c r="X4">
-        <v>39500000</v>
+        <v>58700000</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>121500000</v>
+        <v>176700000</v>
       </c>
       <c r="AA4">
-        <v>17000000</v>
+        <v>27500000</v>
       </c>
       <c r="AB4">
         <v>0</v>
@@ -1656,13 +1644,13 @@
         <v>0</v>
       </c>
       <c r="AE4">
-        <v>10500000</v>
+        <v>18600000</v>
       </c>
       <c r="AF4">
-        <v>27500000</v>
+        <v>46100000</v>
       </c>
       <c r="AG4">
-        <v>13300000</v>
+        <v>16800000</v>
       </c>
       <c r="AH4">
         <v>0</v>
@@ -1671,10 +1659,10 @@
         <v>0</v>
       </c>
       <c r="AJ4">
-        <v>3400000</v>
+        <v>4900000</v>
       </c>
       <c r="AK4">
-        <v>16700000</v>
+        <v>21700000</v>
       </c>
       <c r="AL4">
         <v>0</v>
@@ -1683,7 +1671,7 @@
         <v>0</v>
       </c>
       <c r="AN4">
-        <v>44200000</v>
+        <v>67800000</v>
       </c>
       <c r="AO4">
         <v>0</v>
@@ -1692,37 +1680,37 @@
         <v>0</v>
       </c>
       <c r="AQ4">
-        <v>35000000</v>
+        <v>65100000</v>
       </c>
       <c r="AR4">
-        <v>-12100000</v>
+        <v>-19200000</v>
       </c>
       <c r="AS4">
-        <v>54400000</v>
+        <v>63000000</v>
       </c>
       <c r="AT4">
-        <v>77300000</v>
+        <v>108900000</v>
       </c>
       <c r="AU4">
-        <v>77300000</v>
+        <v>108900000</v>
       </c>
       <c r="AV4">
-        <v>121500000</v>
+        <v>176700000</v>
       </c>
       <c r="AW4">
         <v>0</v>
       </c>
       <c r="AX4">
-        <v>121500000</v>
+        <v>176700000</v>
       </c>
       <c r="AY4">
         <v>0</v>
       </c>
       <c r="AZ4">
-        <v>13300000</v>
+        <v>16800000</v>
       </c>
       <c r="BA4">
-        <v>10600000</v>
+        <v>10300000</v>
       </c>
     </row>
     <row r="5" spans="1:55">
@@ -1730,52 +1718,52 @@
         <v>58</v>
       </c>
       <c r="B5" s="2">
-        <v>34758</v>
+        <v>35124</v>
       </c>
       <c r="C5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" t="s">
         <v>86</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>87</v>
       </c>
-      <c r="E5" t="s">
-        <v>88</v>
-      </c>
       <c r="F5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="I5" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="J5">
-        <v>6500000</v>
+        <v>10300000</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6500000</v>
+        <v>10300000</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>108400000</v>
+        <v>148400000</v>
       </c>
       <c r="O5">
-        <v>3100000</v>
+        <v>1600000</v>
       </c>
       <c r="P5">
-        <v>118000000</v>
+        <v>160300000</v>
       </c>
       <c r="Q5">
-        <v>52200000</v>
+        <v>66600000</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -1793,19 +1781,19 @@
         <v>0</v>
       </c>
       <c r="W5">
-        <v>6500000</v>
+        <v>8900000</v>
       </c>
       <c r="X5">
-        <v>58700000</v>
+        <v>75500000</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>176700000</v>
+        <v>235800000</v>
       </c>
       <c r="AA5">
-        <v>27500000</v>
+        <v>39000000</v>
       </c>
       <c r="AB5">
         <v>0</v>
@@ -1817,13 +1805,13 @@
         <v>0</v>
       </c>
       <c r="AE5">
-        <v>18600000</v>
+        <v>33600000</v>
       </c>
       <c r="AF5">
-        <v>46100000</v>
+        <v>72600000</v>
       </c>
       <c r="AG5">
-        <v>16800000</v>
+        <v>5000000</v>
       </c>
       <c r="AH5">
         <v>0</v>
@@ -1832,10 +1820,10 @@
         <v>0</v>
       </c>
       <c r="AJ5">
-        <v>4900000</v>
+        <v>6800000</v>
       </c>
       <c r="AK5">
-        <v>21700000</v>
+        <v>11800000</v>
       </c>
       <c r="AL5">
         <v>0</v>
@@ -1844,7 +1832,7 @@
         <v>0</v>
       </c>
       <c r="AN5">
-        <v>67800000</v>
+        <v>84400000</v>
       </c>
       <c r="AO5">
         <v>0</v>
@@ -1853,37 +1841,37 @@
         <v>0</v>
       </c>
       <c r="AQ5">
-        <v>65100000</v>
+        <v>104500000</v>
       </c>
       <c r="AR5">
-        <v>-19200000</v>
+        <v>-28700000</v>
       </c>
       <c r="AS5">
-        <v>63000000</v>
+        <v>75600000</v>
       </c>
       <c r="AT5">
-        <v>108900000</v>
+        <v>151400000</v>
       </c>
       <c r="AU5">
-        <v>108900000</v>
+        <v>151400000</v>
       </c>
       <c r="AV5">
-        <v>176700000</v>
+        <v>235800000</v>
       </c>
       <c r="AW5">
         <v>0</v>
       </c>
       <c r="AX5">
-        <v>176700000</v>
+        <v>235800000</v>
       </c>
       <c r="AY5">
         <v>0</v>
       </c>
       <c r="AZ5">
-        <v>16800000</v>
+        <v>5000000</v>
       </c>
       <c r="BA5">
-        <v>10300000</v>
+        <v>-5300000</v>
       </c>
     </row>
     <row r="6" spans="1:55">
@@ -1891,52 +1879,52 @@
         <v>59</v>
       </c>
       <c r="B6" s="2">
-        <v>35124</v>
+        <v>35490</v>
       </c>
       <c r="C6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" t="s">
         <v>86</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>87</v>
       </c>
-      <c r="E6" t="s">
-        <v>88</v>
-      </c>
       <c r="F6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="I6" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="J6">
-        <v>10300000</v>
+        <v>38800000</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>10300000</v>
+        <v>38800000</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>148400000</v>
+        <v>187200000</v>
       </c>
       <c r="O6">
         <v>1600000</v>
       </c>
       <c r="P6">
-        <v>160300000</v>
+        <v>227600000</v>
       </c>
       <c r="Q6">
-        <v>66600000</v>
+        <v>88300000</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -1954,19 +1942,19 @@
         <v>0</v>
       </c>
       <c r="W6">
-        <v>8900000</v>
+        <v>14000000</v>
       </c>
       <c r="X6">
-        <v>75500000</v>
+        <v>102300000</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>235800000</v>
+        <v>329900000</v>
       </c>
       <c r="AA6">
-        <v>39000000</v>
+        <v>47800000</v>
       </c>
       <c r="AB6">
         <v>0</v>
@@ -1978,13 +1966,13 @@
         <v>0</v>
       </c>
       <c r="AE6">
-        <v>33600000</v>
+        <v>58100000</v>
       </c>
       <c r="AF6">
-        <v>72600000</v>
+        <v>105900000</v>
       </c>
       <c r="AG6">
-        <v>5000000</v>
+        <v>0</v>
       </c>
       <c r="AH6">
         <v>0</v>
@@ -1993,10 +1981,10 @@
         <v>0</v>
       </c>
       <c r="AJ6">
-        <v>6800000</v>
+        <v>9700000</v>
       </c>
       <c r="AK6">
-        <v>11800000</v>
+        <v>9700000</v>
       </c>
       <c r="AL6">
         <v>0</v>
@@ -2005,46 +1993,46 @@
         <v>0</v>
       </c>
       <c r="AN6">
-        <v>84400000</v>
+        <v>115600000</v>
       </c>
       <c r="AO6">
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>0</v>
+        <v>700000</v>
       </c>
       <c r="AQ6">
-        <v>104500000</v>
+        <v>159500000</v>
       </c>
       <c r="AR6">
-        <v>-28700000</v>
+        <v>-42100000</v>
       </c>
       <c r="AS6">
-        <v>75600000</v>
+        <v>96300000</v>
       </c>
       <c r="AT6">
-        <v>151400000</v>
+        <v>214400000</v>
       </c>
       <c r="AU6">
-        <v>151400000</v>
+        <v>214400000</v>
       </c>
       <c r="AV6">
-        <v>235800000</v>
+        <v>330000000</v>
       </c>
       <c r="AW6">
         <v>0</v>
       </c>
       <c r="AX6">
-        <v>235800000</v>
+        <v>330000000</v>
       </c>
       <c r="AY6">
         <v>0</v>
       </c>
       <c r="AZ6">
-        <v>5000000</v>
+        <v>0</v>
       </c>
       <c r="BA6">
-        <v>-5300000</v>
+        <v>-38800000</v>
       </c>
     </row>
     <row r="7" spans="1:55">
@@ -2052,52 +2040,52 @@
         <v>60</v>
       </c>
       <c r="B7" s="2">
-        <v>35490</v>
+        <v>35854</v>
       </c>
       <c r="C7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" t="s">
         <v>86</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>87</v>
       </c>
-      <c r="E7" t="s">
-        <v>88</v>
-      </c>
       <c r="F7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="J7">
-        <v>38800000</v>
+        <v>53300000</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>38800000</v>
+        <v>53300000</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>187200000</v>
+        <v>270400000</v>
       </c>
       <c r="O7">
-        <v>1600000</v>
+        <v>2300000</v>
       </c>
       <c r="P7">
-        <v>227600000</v>
+        <v>326000000</v>
       </c>
       <c r="Q7">
-        <v>88300000</v>
+        <v>111400000</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -2115,19 +2103,19 @@
         <v>0</v>
       </c>
       <c r="W7">
-        <v>14000000</v>
+        <v>20900000</v>
       </c>
       <c r="X7">
-        <v>102300000</v>
+        <v>132300000</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>329900000</v>
+        <v>458300000</v>
       </c>
       <c r="AA7">
-        <v>47800000</v>
+        <v>64700000</v>
       </c>
       <c r="AB7">
         <v>0</v>
@@ -2139,10 +2127,10 @@
         <v>0</v>
       </c>
       <c r="AE7">
-        <v>58100000</v>
+        <v>85600000</v>
       </c>
       <c r="AF7">
-        <v>105900000</v>
+        <v>150300000</v>
       </c>
       <c r="AG7">
         <v>0</v>
@@ -2154,10 +2142,10 @@
         <v>0</v>
       </c>
       <c r="AJ7">
-        <v>9700000</v>
+        <v>12600000</v>
       </c>
       <c r="AK7">
-        <v>9700000</v>
+        <v>12600000</v>
       </c>
       <c r="AL7">
         <v>0</v>
@@ -2166,37 +2154,37 @@
         <v>0</v>
       </c>
       <c r="AN7">
-        <v>115600000</v>
+        <v>162900000</v>
       </c>
       <c r="AO7">
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>700000</v>
+        <v>0</v>
       </c>
       <c r="AQ7">
-        <v>159500000</v>
+        <v>232700000</v>
       </c>
       <c r="AR7">
-        <v>-42100000</v>
+        <v>-57500000</v>
       </c>
       <c r="AS7">
-        <v>96300000</v>
+        <v>120200000</v>
       </c>
       <c r="AT7">
-        <v>214400000</v>
+        <v>295400000</v>
       </c>
       <c r="AU7">
-        <v>214400000</v>
+        <v>295400000</v>
       </c>
       <c r="AV7">
-        <v>330000000</v>
+        <v>458300000</v>
       </c>
       <c r="AW7">
         <v>0</v>
       </c>
       <c r="AX7">
-        <v>330000000</v>
+        <v>458300000</v>
       </c>
       <c r="AY7">
         <v>0</v>
@@ -2205,7 +2193,7 @@
         <v>0</v>
       </c>
       <c r="BA7">
-        <v>-38800000</v>
+        <v>-53300000</v>
       </c>
     </row>
     <row r="8" spans="1:55">
@@ -2213,52 +2201,52 @@
         <v>61</v>
       </c>
       <c r="B8" s="2">
-        <v>35854</v>
+        <v>36218</v>
       </c>
       <c r="C8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" t="s">
         <v>86</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>87</v>
       </c>
-      <c r="E8" t="s">
-        <v>88</v>
-      </c>
       <c r="F8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="I8" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="J8">
-        <v>53300000</v>
+        <v>90400000</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>53300000</v>
+        <v>90400000</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>270400000</v>
+        <v>360300000</v>
       </c>
       <c r="O8">
-        <v>2300000</v>
+        <v>22600000</v>
       </c>
       <c r="P8">
-        <v>326000000</v>
+        <v>473300000</v>
       </c>
       <c r="Q8">
-        <v>111400000</v>
+        <v>150400000</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -2276,19 +2264,19 @@
         <v>0</v>
       </c>
       <c r="W8">
-        <v>20900000</v>
+        <v>9400000</v>
       </c>
       <c r="X8">
-        <v>132300000</v>
+        <v>159800000</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>458300000</v>
+        <v>633100000</v>
       </c>
       <c r="AA8">
-        <v>64700000</v>
+        <v>99400000</v>
       </c>
       <c r="AB8">
         <v>0</v>
@@ -2300,10 +2288,10 @@
         <v>0</v>
       </c>
       <c r="AE8">
-        <v>85600000</v>
+        <v>106300000</v>
       </c>
       <c r="AF8">
-        <v>150300000</v>
+        <v>205700000</v>
       </c>
       <c r="AG8">
         <v>0</v>
@@ -2315,10 +2303,10 @@
         <v>0</v>
       </c>
       <c r="AJ8">
-        <v>12600000</v>
+        <v>16400000</v>
       </c>
       <c r="AK8">
-        <v>12600000</v>
+        <v>16400000</v>
       </c>
       <c r="AL8">
         <v>0</v>
@@ -2327,37 +2315,37 @@
         <v>0</v>
       </c>
       <c r="AN8">
-        <v>162900000</v>
+        <v>222100000</v>
       </c>
       <c r="AO8">
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0</v>
+        <v>1400000</v>
       </c>
       <c r="AQ8">
-        <v>232700000</v>
+        <v>330000000</v>
       </c>
       <c r="AR8">
-        <v>-57500000</v>
+        <v>-80200000</v>
       </c>
       <c r="AS8">
-        <v>120200000</v>
+        <v>159900000</v>
       </c>
       <c r="AT8">
-        <v>295400000</v>
+        <v>411100000</v>
       </c>
       <c r="AU8">
-        <v>295400000</v>
+        <v>411100000</v>
       </c>
       <c r="AV8">
-        <v>458300000</v>
+        <v>633200000</v>
       </c>
       <c r="AW8">
         <v>0</v>
       </c>
       <c r="AX8">
-        <v>458300000</v>
+        <v>633200000</v>
       </c>
       <c r="AY8">
         <v>0</v>
@@ -2366,7 +2354,7 @@
         <v>0</v>
       </c>
       <c r="BA8">
-        <v>-53300000</v>
+        <v>-90400000</v>
       </c>
     </row>
     <row r="9" spans="1:55">
@@ -2374,52 +2362,52 @@
         <v>62</v>
       </c>
       <c r="B9" s="2">
-        <v>36218</v>
+        <v>36582</v>
       </c>
       <c r="C9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" t="s">
         <v>86</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>87</v>
       </c>
-      <c r="E9" t="s">
-        <v>88</v>
-      </c>
       <c r="F9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H9" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I9" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="J9">
-        <v>90400000</v>
+        <v>144000000</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>90400000</v>
+        <v>144000000</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>360300000</v>
+        <v>470400000</v>
       </c>
       <c r="O9">
-        <v>22600000</v>
+        <v>33000000</v>
       </c>
       <c r="P9">
-        <v>473300000</v>
+        <v>647400000</v>
       </c>
       <c r="Q9">
-        <v>150400000</v>
+        <v>208900000</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -2437,19 +2425,19 @@
         <v>0</v>
       </c>
       <c r="W9">
-        <v>9400000</v>
+        <v>9500000</v>
       </c>
       <c r="X9">
-        <v>159800000</v>
+        <v>218400000</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>633100000</v>
+        <v>865800000</v>
       </c>
       <c r="AA9">
-        <v>99400000</v>
+        <v>145100000</v>
       </c>
       <c r="AB9">
         <v>0</v>
@@ -2461,10 +2449,10 @@
         <v>0</v>
       </c>
       <c r="AE9">
-        <v>106300000</v>
+        <v>141700000</v>
       </c>
       <c r="AF9">
-        <v>205700000</v>
+        <v>286800000</v>
       </c>
       <c r="AG9">
         <v>0</v>
@@ -2476,10 +2464,10 @@
         <v>0</v>
       </c>
       <c r="AJ9">
-        <v>16400000</v>
+        <v>20000000</v>
       </c>
       <c r="AK9">
-        <v>16400000</v>
+        <v>20000000</v>
       </c>
       <c r="AL9">
         <v>0</v>
@@ -2488,37 +2476,37 @@
         <v>0</v>
       </c>
       <c r="AN9">
-        <v>222100000</v>
+        <v>306800000</v>
       </c>
       <c r="AO9">
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1400000</v>
+        <v>2800000</v>
       </c>
       <c r="AQ9">
-        <v>330000000</v>
+        <v>461200000</v>
       </c>
       <c r="AR9">
-        <v>-80200000</v>
+        <v>-111800000</v>
       </c>
       <c r="AS9">
-        <v>159900000</v>
+        <v>206800000</v>
       </c>
       <c r="AT9">
-        <v>411100000</v>
+        <v>559000000</v>
       </c>
       <c r="AU9">
-        <v>411100000</v>
+        <v>559000000</v>
       </c>
       <c r="AV9">
-        <v>633200000</v>
+        <v>865800000</v>
       </c>
       <c r="AW9">
         <v>0</v>
       </c>
       <c r="AX9">
-        <v>633200000</v>
+        <v>865800000</v>
       </c>
       <c r="AY9">
         <v>0</v>
@@ -2527,7 +2515,13 @@
         <v>0</v>
       </c>
       <c r="BA9">
-        <v>-90400000</v>
+        <v>-144000000</v>
+      </c>
+      <c r="BB9" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="BC9" s="3" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="10" spans="1:55">
@@ -2535,52 +2529,52 @@
         <v>63</v>
       </c>
       <c r="B10" s="2">
-        <v>36582</v>
+        <v>36953</v>
       </c>
       <c r="C10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" t="s">
         <v>86</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>87</v>
       </c>
-      <c r="E10" t="s">
-        <v>88</v>
-      </c>
       <c r="F10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H10" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I10" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="J10">
-        <v>144000000</v>
+        <v>239300000</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>144000000</v>
+        <v>239300000</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>470400000</v>
+        <v>606700000</v>
       </c>
       <c r="O10">
-        <v>33000000</v>
+        <v>39700000</v>
       </c>
       <c r="P10">
-        <v>647400000</v>
+        <v>885700000</v>
       </c>
       <c r="Q10">
-        <v>208900000</v>
+        <v>302700000</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -2598,19 +2592,19 @@
         <v>0</v>
       </c>
       <c r="W10">
-        <v>9500000</v>
+        <v>7300000</v>
       </c>
       <c r="X10">
-        <v>218400000</v>
+        <v>310000000</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>865800000</v>
+        <v>1195700000</v>
       </c>
       <c r="AA10">
-        <v>145100000</v>
+        <v>192400000</v>
       </c>
       <c r="AB10">
         <v>0</v>
@@ -2622,10 +2616,10 @@
         <v>0</v>
       </c>
       <c r="AE10">
-        <v>141700000</v>
+        <v>160800000</v>
       </c>
       <c r="AF10">
-        <v>286800000</v>
+        <v>353200000</v>
       </c>
       <c r="AG10">
         <v>0</v>
@@ -2637,10 +2631,10 @@
         <v>0</v>
       </c>
       <c r="AJ10">
-        <v>20000000</v>
+        <v>25500000</v>
       </c>
       <c r="AK10">
-        <v>20000000</v>
+        <v>25500000</v>
       </c>
       <c r="AL10">
         <v>0</v>
@@ -2649,37 +2643,37 @@
         <v>0</v>
       </c>
       <c r="AN10">
-        <v>306800000</v>
+        <v>378700000</v>
       </c>
       <c r="AO10">
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2800000</v>
+        <v>2900000</v>
       </c>
       <c r="AQ10">
-        <v>461200000</v>
+        <v>633200000</v>
       </c>
       <c r="AR10">
-        <v>-111800000</v>
+        <v>-158500000</v>
       </c>
       <c r="AS10">
-        <v>206800000</v>
+        <v>339400000</v>
       </c>
       <c r="AT10">
-        <v>559000000</v>
+        <v>817000000</v>
       </c>
       <c r="AU10">
-        <v>559000000</v>
+        <v>817000000</v>
       </c>
       <c r="AV10">
-        <v>865800000</v>
+        <v>1195700000</v>
       </c>
       <c r="AW10">
         <v>0</v>
       </c>
       <c r="AX10">
-        <v>865800000</v>
+        <v>1195700000</v>
       </c>
       <c r="AY10">
         <v>0</v>
@@ -2688,13 +2682,13 @@
         <v>0</v>
       </c>
       <c r="BA10">
-        <v>-144000000</v>
+        <v>-239300000</v>
       </c>
       <c r="BB10" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="BC10" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:55">
@@ -2702,52 +2696,52 @@
         <v>64</v>
       </c>
       <c r="B11" s="2">
-        <v>36953</v>
+        <v>37317</v>
       </c>
       <c r="C11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" t="s">
         <v>86</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>87</v>
       </c>
-      <c r="E11" t="s">
-        <v>88</v>
-      </c>
       <c r="F11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H11" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="I11" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="J11">
-        <v>239300000</v>
+        <v>429500000</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>239300000</v>
+        <v>429500000</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>606700000</v>
+        <v>754000000</v>
       </c>
       <c r="O11">
-        <v>39700000</v>
+        <v>43200000</v>
       </c>
       <c r="P11">
-        <v>885700000</v>
+        <v>1226700000</v>
       </c>
       <c r="Q11">
-        <v>302700000</v>
+        <v>361700000</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -2759,25 +2753,25 @@
         <v>0</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>51900000</v>
       </c>
       <c r="V11">
         <v>0</v>
       </c>
       <c r="W11">
-        <v>7300000</v>
+        <v>7200000</v>
       </c>
       <c r="X11">
-        <v>310000000</v>
+        <v>420800000</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>1195700000</v>
+        <v>1647500000</v>
       </c>
       <c r="AA11">
-        <v>192400000</v>
+        <v>270900000</v>
       </c>
       <c r="AB11">
         <v>0</v>
@@ -2789,10 +2783,10 @@
         <v>0</v>
       </c>
       <c r="AE11">
-        <v>160800000</v>
+        <v>240400000</v>
       </c>
       <c r="AF11">
-        <v>353200000</v>
+        <v>511300000</v>
       </c>
       <c r="AG11">
         <v>0</v>
@@ -2804,10 +2798,10 @@
         <v>0</v>
       </c>
       <c r="AJ11">
-        <v>25500000</v>
+        <v>41900000</v>
       </c>
       <c r="AK11">
-        <v>25500000</v>
+        <v>41900000</v>
       </c>
       <c r="AL11">
         <v>0</v>
@@ -2816,7 +2810,7 @@
         <v>0</v>
       </c>
       <c r="AN11">
-        <v>378700000</v>
+        <v>553200000</v>
       </c>
       <c r="AO11">
         <v>0</v>
@@ -2825,43 +2819,37 @@
         <v>2900000</v>
       </c>
       <c r="AQ11">
-        <v>633200000</v>
+        <v>852800000</v>
       </c>
       <c r="AR11">
-        <v>-158500000</v>
+        <v>-221000000</v>
       </c>
       <c r="AS11">
-        <v>339400000</v>
+        <v>459700000</v>
       </c>
       <c r="AT11">
-        <v>817000000</v>
+        <v>1094400000</v>
       </c>
       <c r="AU11">
-        <v>817000000</v>
+        <v>1094400000</v>
       </c>
       <c r="AV11">
-        <v>1195700000</v>
+        <v>1647600000</v>
       </c>
       <c r="AW11">
         <v>0</v>
       </c>
       <c r="AX11">
-        <v>1195700000</v>
+        <v>1647600000</v>
       </c>
       <c r="AY11">
-        <v>0</v>
+        <v>51900000</v>
       </c>
       <c r="AZ11">
         <v>0</v>
       </c>
       <c r="BA11">
-        <v>-239300000</v>
-      </c>
-      <c r="BB11" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="BC11" s="3" t="s">
-        <v>206</v>
+        <v>-429500000</v>
       </c>
     </row>
     <row r="12" spans="1:55">
@@ -2869,52 +2857,52 @@
         <v>65</v>
       </c>
       <c r="B12" s="2">
-        <v>37317</v>
+        <v>37681</v>
       </c>
       <c r="C12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" t="s">
         <v>86</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>87</v>
       </c>
-      <c r="E12" t="s">
-        <v>88</v>
-      </c>
       <c r="F12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H12" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I12" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="J12">
-        <v>429500000</v>
+        <v>515670000</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>100927000</v>
       </c>
       <c r="L12">
-        <v>429500000</v>
+        <v>616597000</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>754000000</v>
+        <v>915671000</v>
       </c>
       <c r="O12">
-        <v>43200000</v>
+        <v>62123000</v>
       </c>
       <c r="P12">
-        <v>1226700000</v>
+        <v>1594391000</v>
       </c>
       <c r="Q12">
-        <v>361700000</v>
+        <v>423907000</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -2926,25 +2914,25 @@
         <v>0</v>
       </c>
       <c r="U12">
-        <v>51900000</v>
+        <v>0</v>
       </c>
       <c r="V12">
         <v>0</v>
       </c>
       <c r="W12">
-        <v>7200000</v>
+        <v>170544000</v>
       </c>
       <c r="X12">
-        <v>420800000</v>
+        <v>594451000</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>1647500000</v>
+        <v>2188842000</v>
       </c>
       <c r="AA12">
-        <v>270900000</v>
+        <v>362965000</v>
       </c>
       <c r="AB12">
         <v>0</v>
@@ -2956,10 +2944,10 @@
         <v>0</v>
       </c>
       <c r="AE12">
-        <v>240400000</v>
+        <v>317206000</v>
       </c>
       <c r="AF12">
-        <v>511300000</v>
+        <v>680171000</v>
       </c>
       <c r="AG12">
         <v>0</v>
@@ -2971,10 +2959,10 @@
         <v>0</v>
       </c>
       <c r="AJ12">
-        <v>41900000</v>
+        <v>56750000</v>
       </c>
       <c r="AK12">
-        <v>41900000</v>
+        <v>56750000</v>
       </c>
       <c r="AL12">
         <v>0</v>
@@ -2983,46 +2971,52 @@
         <v>0</v>
       </c>
       <c r="AN12">
-        <v>553200000</v>
+        <v>736921000</v>
       </c>
       <c r="AO12">
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2900000</v>
+        <v>2944000</v>
       </c>
       <c r="AQ12">
-        <v>852800000</v>
+        <v>1154943000</v>
       </c>
       <c r="AR12">
-        <v>-221000000</v>
+        <v>-295900000</v>
       </c>
       <c r="AS12">
-        <v>459700000</v>
+        <v>589934000</v>
       </c>
       <c r="AT12">
-        <v>1094400000</v>
+        <v>1451921000</v>
       </c>
       <c r="AU12">
-        <v>1094400000</v>
+        <v>1451921000</v>
       </c>
       <c r="AV12">
-        <v>1647600000</v>
+        <v>2188842000</v>
       </c>
       <c r="AW12">
         <v>0</v>
       </c>
       <c r="AX12">
-        <v>1647600000</v>
+        <v>2188842000</v>
       </c>
       <c r="AY12">
-        <v>51900000</v>
+        <v>0</v>
       </c>
       <c r="AZ12">
         <v>0</v>
       </c>
       <c r="BA12">
-        <v>-429500000</v>
+        <v>-515670000</v>
+      </c>
+      <c r="BB12" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="BC12" s="3" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="13" spans="1:55">
@@ -3030,166 +3024,166 @@
         <v>66</v>
       </c>
       <c r="B13" s="2">
-        <v>37681</v>
+        <v>38045</v>
       </c>
       <c r="C13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" t="s">
         <v>86</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>87</v>
       </c>
-      <c r="E13" t="s">
-        <v>88</v>
-      </c>
       <c r="F13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H13" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I13" t="s">
+        <v>178</v>
+      </c>
+      <c r="J13">
+        <v>825015000</v>
+      </c>
+      <c r="K13">
+        <v>41580000</v>
+      </c>
+      <c r="L13">
+        <v>866595000</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>1012334000</v>
+      </c>
+      <c r="O13">
+        <v>90357000</v>
+      </c>
+      <c r="P13">
+        <v>1969286000</v>
+      </c>
+      <c r="Q13">
+        <v>516164000</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>147269000</v>
+      </c>
+      <c r="T13">
+        <v>147269000</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>232304000</v>
+      </c>
+      <c r="X13">
+        <v>895737000</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>2865023000</v>
+      </c>
+      <c r="AA13">
+        <v>398650000</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>370884000</v>
+      </c>
+      <c r="AF13">
+        <v>769534000</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
+        <v>104669000</v>
+      </c>
+      <c r="AK13">
+        <v>104669000</v>
+      </c>
+      <c r="AL13">
+        <v>0</v>
+      </c>
+      <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AN13">
+        <v>874203000</v>
+      </c>
+      <c r="AO13">
+        <v>0</v>
+      </c>
+      <c r="AP13">
+        <v>3003000</v>
+      </c>
+      <c r="AQ13">
+        <v>1554413000</v>
+      </c>
+      <c r="AR13">
+        <v>-380000000</v>
+      </c>
+      <c r="AS13">
+        <v>813404000</v>
+      </c>
+      <c r="AT13">
+        <v>1990820000</v>
+      </c>
+      <c r="AU13">
+        <v>1990820000</v>
+      </c>
+      <c r="AV13">
+        <v>2865023000</v>
+      </c>
+      <c r="AW13">
+        <v>0</v>
+      </c>
+      <c r="AX13">
+        <v>2865023000</v>
+      </c>
+      <c r="AY13">
+        <v>0</v>
+      </c>
+      <c r="AZ13">
+        <v>0</v>
+      </c>
+      <c r="BA13">
+        <v>-825015000</v>
+      </c>
+      <c r="BB13" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="J13">
-        <v>515670000</v>
-      </c>
-      <c r="K13">
-        <v>100927000</v>
-      </c>
-      <c r="L13">
-        <v>616597000</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>915671000</v>
-      </c>
-      <c r="O13">
-        <v>62123000</v>
-      </c>
-      <c r="P13">
-        <v>1594391000</v>
-      </c>
-      <c r="Q13">
-        <v>423907000</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-      <c r="W13">
-        <v>170544000</v>
-      </c>
-      <c r="X13">
-        <v>594451000</v>
-      </c>
-      <c r="Y13">
-        <v>0</v>
-      </c>
-      <c r="Z13">
-        <v>2188842000</v>
-      </c>
-      <c r="AA13">
-        <v>362965000</v>
-      </c>
-      <c r="AB13">
-        <v>0</v>
-      </c>
-      <c r="AC13">
-        <v>0</v>
-      </c>
-      <c r="AD13">
-        <v>0</v>
-      </c>
-      <c r="AE13">
-        <v>317206000</v>
-      </c>
-      <c r="AF13">
-        <v>680171000</v>
-      </c>
-      <c r="AG13">
-        <v>0</v>
-      </c>
-      <c r="AH13">
-        <v>0</v>
-      </c>
-      <c r="AI13">
-        <v>0</v>
-      </c>
-      <c r="AJ13">
-        <v>56750000</v>
-      </c>
-      <c r="AK13">
-        <v>56750000</v>
-      </c>
-      <c r="AL13">
-        <v>0</v>
-      </c>
-      <c r="AM13">
-        <v>0</v>
-      </c>
-      <c r="AN13">
-        <v>736921000</v>
-      </c>
-      <c r="AO13">
-        <v>0</v>
-      </c>
-      <c r="AP13">
-        <v>2944000</v>
-      </c>
-      <c r="AQ13">
-        <v>1154943000</v>
-      </c>
-      <c r="AR13">
-        <v>-295900000</v>
-      </c>
-      <c r="AS13">
-        <v>589934000</v>
-      </c>
-      <c r="AT13">
-        <v>1451921000</v>
-      </c>
-      <c r="AU13">
-        <v>1451921000</v>
-      </c>
-      <c r="AV13">
-        <v>2188842000</v>
-      </c>
-      <c r="AW13">
-        <v>0</v>
-      </c>
-      <c r="AX13">
-        <v>2188842000</v>
-      </c>
-      <c r="AY13">
-        <v>0</v>
-      </c>
-      <c r="AZ13">
-        <v>0</v>
-      </c>
-      <c r="BA13">
-        <v>-515670000</v>
-      </c>
-      <c r="BB13" s="3" t="s">
-        <v>185</v>
-      </c>
       <c r="BC13" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:55">
@@ -3197,61 +3191,61 @@
         <v>67</v>
       </c>
       <c r="B14" s="2">
-        <v>38045</v>
+        <v>38409</v>
       </c>
       <c r="C14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" t="s">
         <v>86</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>87</v>
       </c>
-      <c r="E14" t="s">
-        <v>88</v>
-      </c>
       <c r="F14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H14" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I14" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="J14">
-        <v>825015000</v>
+        <v>222108000</v>
       </c>
       <c r="K14">
-        <v>41580000</v>
+        <v>629339000</v>
       </c>
       <c r="L14">
-        <v>866595000</v>
+        <v>851447000</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1012334000</v>
+        <v>1152028000</v>
       </c>
       <c r="O14">
-        <v>90357000</v>
+        <v>93527000</v>
       </c>
       <c r="P14">
-        <v>1969286000</v>
+        <v>2097002000</v>
       </c>
       <c r="Q14">
-        <v>516164000</v>
+        <v>609631000</v>
       </c>
       <c r="R14">
         <v>0</v>
       </c>
       <c r="S14">
-        <v>147269000</v>
+        <v>147559000</v>
       </c>
       <c r="T14">
-        <v>147269000</v>
+        <v>147559000</v>
       </c>
       <c r="U14">
         <v>0</v>
@@ -3260,19 +3254,19 @@
         <v>0</v>
       </c>
       <c r="W14">
-        <v>232304000</v>
+        <v>345787000</v>
       </c>
       <c r="X14">
-        <v>895737000</v>
+        <v>1102977000</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>2865023000</v>
+        <v>3199979000</v>
       </c>
       <c r="AA14">
-        <v>398650000</v>
+        <v>450525000</v>
       </c>
       <c r="AB14">
         <v>0</v>
@@ -3284,10 +3278,10 @@
         <v>0</v>
       </c>
       <c r="AE14">
-        <v>370884000</v>
+        <v>423068000</v>
       </c>
       <c r="AF14">
-        <v>769534000</v>
+        <v>873593000</v>
       </c>
       <c r="AG14">
         <v>0</v>
@@ -3299,10 +3293,10 @@
         <v>0</v>
       </c>
       <c r="AJ14">
-        <v>104669000</v>
+        <v>122624000</v>
       </c>
       <c r="AK14">
-        <v>104669000</v>
+        <v>122624000</v>
       </c>
       <c r="AL14">
         <v>0</v>
@@ -3311,37 +3305,37 @@
         <v>0</v>
       </c>
       <c r="AN14">
-        <v>874203000</v>
+        <v>996217000</v>
       </c>
       <c r="AO14">
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>3003000</v>
+        <v>3028000</v>
       </c>
       <c r="AQ14">
-        <v>1554413000</v>
+        <v>2059377000</v>
       </c>
       <c r="AR14">
-        <v>-380000000</v>
+        <v>-477000000</v>
       </c>
       <c r="AS14">
-        <v>813404000</v>
+        <v>618357000</v>
       </c>
       <c r="AT14">
-        <v>1990820000</v>
+        <v>2203762000</v>
       </c>
       <c r="AU14">
-        <v>1990820000</v>
+        <v>2203762000</v>
       </c>
       <c r="AV14">
-        <v>2865023000</v>
+        <v>3199979000</v>
       </c>
       <c r="AW14">
         <v>0</v>
       </c>
       <c r="AX14">
-        <v>2865023000</v>
+        <v>3199979000</v>
       </c>
       <c r="AY14">
         <v>0</v>
@@ -3350,13 +3344,13 @@
         <v>0</v>
       </c>
       <c r="BA14">
-        <v>-825015000</v>
+        <v>-222108000</v>
       </c>
       <c r="BB14" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="BC14" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:55">
@@ -3364,61 +3358,61 @@
         <v>68</v>
       </c>
       <c r="B15" s="2">
-        <v>38409</v>
+        <v>38773</v>
       </c>
       <c r="C15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" t="s">
         <v>86</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>87</v>
       </c>
-      <c r="E15" t="s">
-        <v>88</v>
-      </c>
       <c r="F15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H15" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="I15" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="J15">
-        <v>222108000</v>
+        <v>247697000</v>
       </c>
       <c r="K15">
-        <v>629339000</v>
+        <v>404113000</v>
       </c>
       <c r="L15">
-        <v>851447000</v>
+        <v>651810000</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1152028000</v>
+        <v>1301720000</v>
       </c>
       <c r="O15">
-        <v>93527000</v>
+        <v>118415000</v>
       </c>
       <c r="P15">
-        <v>2097002000</v>
+        <v>2071945000</v>
       </c>
       <c r="Q15">
-        <v>609631000</v>
+        <v>738742000</v>
       </c>
       <c r="R15">
         <v>0</v>
       </c>
       <c r="S15">
-        <v>147559000</v>
+        <v>0</v>
       </c>
       <c r="T15">
-        <v>147559000</v>
+        <v>0</v>
       </c>
       <c r="U15">
         <v>0</v>
@@ -3427,19 +3421,19 @@
         <v>0</v>
       </c>
       <c r="W15">
-        <v>345787000</v>
+        <v>571453000</v>
       </c>
       <c r="X15">
-        <v>1102977000</v>
+        <v>1310195000</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>3199979000</v>
+        <v>3382140000</v>
       </c>
       <c r="AA15">
-        <v>450525000</v>
+        <v>534910000</v>
       </c>
       <c r="AB15">
         <v>0</v>
@@ -3451,10 +3445,10 @@
         <v>0</v>
       </c>
       <c r="AE15">
-        <v>423068000</v>
+        <v>454636000</v>
       </c>
       <c r="AF15">
-        <v>873593000</v>
+        <v>989546000</v>
       </c>
       <c r="AG15">
         <v>0</v>
@@ -3466,10 +3460,10 @@
         <v>0</v>
       </c>
       <c r="AJ15">
-        <v>122624000</v>
+        <v>130144000</v>
       </c>
       <c r="AK15">
-        <v>122624000</v>
+        <v>130144000</v>
       </c>
       <c r="AL15">
         <v>0</v>
@@ -3478,37 +3472,37 @@
         <v>0</v>
       </c>
       <c r="AN15">
-        <v>996217000</v>
+        <v>1119690000</v>
       </c>
       <c r="AO15">
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>3028000</v>
+        <v>3062000</v>
       </c>
       <c r="AQ15">
-        <v>2059377000</v>
+        <v>2632224000</v>
       </c>
       <c r="AR15">
-        <v>-477000000</v>
+        <v>-587800000</v>
       </c>
       <c r="AS15">
-        <v>618357000</v>
+        <v>214964000</v>
       </c>
       <c r="AT15">
-        <v>2203762000</v>
+        <v>2262450000</v>
       </c>
       <c r="AU15">
-        <v>2203762000</v>
+        <v>2262450000</v>
       </c>
       <c r="AV15">
-        <v>3199979000</v>
+        <v>3382140000</v>
       </c>
       <c r="AW15">
         <v>0</v>
       </c>
       <c r="AX15">
-        <v>3199979000</v>
+        <v>3382140000</v>
       </c>
       <c r="AY15">
         <v>0</v>
@@ -3517,13 +3511,13 @@
         <v>0</v>
       </c>
       <c r="BA15">
-        <v>-222108000</v>
+        <v>-247697000</v>
       </c>
       <c r="BB15" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="BC15" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="16" spans="1:55">
@@ -3531,52 +3525,52 @@
         <v>69</v>
       </c>
       <c r="B16" s="2">
-        <v>38773</v>
+        <v>39144</v>
       </c>
       <c r="C16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" t="s">
         <v>86</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>87</v>
       </c>
-      <c r="E16" t="s">
-        <v>88</v>
-      </c>
       <c r="F16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H16" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="I16" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="J16">
-        <v>247697000</v>
+        <v>213381000</v>
       </c>
       <c r="K16">
-        <v>404113000</v>
+        <v>774881000</v>
       </c>
       <c r="L16">
-        <v>651810000</v>
+        <v>988262000</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1301720000</v>
+        <v>1505800000</v>
       </c>
       <c r="O16">
-        <v>118415000</v>
+        <v>204552000</v>
       </c>
       <c r="P16">
-        <v>2071945000</v>
+        <v>2698614000</v>
       </c>
       <c r="Q16">
-        <v>738742000</v>
+        <v>929507000</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -3594,19 +3588,19 @@
         <v>0</v>
       </c>
       <c r="W16">
-        <v>571453000</v>
+        <v>331183000</v>
       </c>
       <c r="X16">
-        <v>1310195000</v>
+        <v>1260690000</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>3382140000</v>
+        <v>3959304000</v>
       </c>
       <c r="AA16">
-        <v>534910000</v>
+        <v>615156000</v>
       </c>
       <c r="AB16">
         <v>0</v>
@@ -3618,10 +3612,10 @@
         <v>0</v>
       </c>
       <c r="AE16">
-        <v>454636000</v>
+        <v>529917000</v>
       </c>
       <c r="AF16">
-        <v>989546000</v>
+        <v>1145073000</v>
       </c>
       <c r="AG16">
         <v>0</v>
@@ -3633,10 +3627,10 @@
         <v>0</v>
       </c>
       <c r="AJ16">
-        <v>130144000</v>
+        <v>165080000</v>
       </c>
       <c r="AK16">
-        <v>130144000</v>
+        <v>165080000</v>
       </c>
       <c r="AL16">
         <v>0</v>
@@ -3645,37 +3639,37 @@
         <v>0</v>
       </c>
       <c r="AN16">
-        <v>1119690000</v>
+        <v>1310153000</v>
       </c>
       <c r="AO16">
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>3062000</v>
+        <v>3098000</v>
       </c>
       <c r="AQ16">
-        <v>2632224000</v>
+        <v>3153856000</v>
       </c>
       <c r="AR16">
-        <v>-587800000</v>
+        <v>4385000</v>
       </c>
       <c r="AS16">
-        <v>214964000</v>
+        <v>-512188000</v>
       </c>
       <c r="AT16">
-        <v>2262450000</v>
+        <v>2649151000</v>
       </c>
       <c r="AU16">
-        <v>2262450000</v>
+        <v>2649151000</v>
       </c>
       <c r="AV16">
-        <v>3382140000</v>
+        <v>3959304000</v>
       </c>
       <c r="AW16">
         <v>0</v>
       </c>
       <c r="AX16">
-        <v>3382140000</v>
+        <v>3959304000</v>
       </c>
       <c r="AY16">
         <v>0</v>
@@ -3684,13 +3678,13 @@
         <v>0</v>
       </c>
       <c r="BA16">
-        <v>-247697000</v>
+        <v>-213381000</v>
       </c>
       <c r="BB16" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="BC16" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17" spans="1:55">
@@ -3698,52 +3692,52 @@
         <v>70</v>
       </c>
       <c r="B17" s="2">
-        <v>39144</v>
+        <v>39508</v>
       </c>
       <c r="C17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" t="s">
         <v>86</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>87</v>
       </c>
-      <c r="E17" t="s">
-        <v>88</v>
-      </c>
       <c r="F17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G17" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H17" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I17" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="J17">
-        <v>213381000</v>
+        <v>224084000</v>
       </c>
       <c r="K17">
-        <v>774881000</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>988262000</v>
+        <v>224084000</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1505800000</v>
+        <v>1616981000</v>
       </c>
       <c r="O17">
-        <v>204552000</v>
+        <v>238646000</v>
       </c>
       <c r="P17">
-        <v>2698614000</v>
+        <v>2079711000</v>
       </c>
       <c r="Q17">
-        <v>929507000</v>
+        <v>1121906000</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -3761,19 +3755,19 @@
         <v>0</v>
       </c>
       <c r="W17">
-        <v>331183000</v>
+        <v>642476000</v>
       </c>
       <c r="X17">
-        <v>1260690000</v>
+        <v>1764382000</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>3959304000</v>
+        <v>3844093000</v>
       </c>
       <c r="AA17">
-        <v>615156000</v>
+        <v>570605000</v>
       </c>
       <c r="AB17">
         <v>0</v>
@@ -3785,10 +3779,10 @@
         <v>0</v>
       </c>
       <c r="AE17">
-        <v>529917000</v>
+        <v>443507000</v>
       </c>
       <c r="AF17">
-        <v>1145073000</v>
+        <v>1014112000</v>
       </c>
       <c r="AG17">
         <v>0</v>
@@ -3800,10 +3794,10 @@
         <v>0</v>
       </c>
       <c r="AJ17">
-        <v>165080000</v>
+        <v>268153000</v>
       </c>
       <c r="AK17">
-        <v>165080000</v>
+        <v>268153000</v>
       </c>
       <c r="AL17">
         <v>0</v>
@@ -3812,37 +3806,37 @@
         <v>0</v>
       </c>
       <c r="AN17">
-        <v>1310153000</v>
+        <v>1282265000</v>
       </c>
       <c r="AO17">
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>3098000</v>
+        <v>3122000</v>
       </c>
       <c r="AQ17">
-        <v>3153856000</v>
+        <v>3729766000</v>
       </c>
       <c r="AR17">
-        <v>4385000</v>
+        <v>-1038000</v>
       </c>
       <c r="AS17">
-        <v>-512188000</v>
+        <v>-1170022000</v>
       </c>
       <c r="AT17">
-        <v>2649151000</v>
+        <v>2561828000</v>
       </c>
       <c r="AU17">
-        <v>2649151000</v>
+        <v>2561828000</v>
       </c>
       <c r="AV17">
-        <v>3959304000</v>
+        <v>3844093000</v>
       </c>
       <c r="AW17">
         <v>0</v>
       </c>
       <c r="AX17">
-        <v>3959304000</v>
+        <v>3844093000</v>
       </c>
       <c r="AY17">
         <v>0</v>
@@ -3851,13 +3845,13 @@
         <v>0</v>
       </c>
       <c r="BA17">
-        <v>-213381000</v>
+        <v>-224084000</v>
       </c>
       <c r="BB17" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="BC17" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:55">
@@ -3865,52 +3859,52 @@
         <v>71</v>
       </c>
       <c r="B18" s="2">
-        <v>39508</v>
+        <v>39872</v>
       </c>
       <c r="C18" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" t="s">
         <v>86</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>87</v>
       </c>
-      <c r="E18" t="s">
-        <v>88</v>
-      </c>
       <c r="F18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G18" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H18" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="I18" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="J18">
-        <v>224084000</v>
+        <v>668209000</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>2000000</v>
       </c>
       <c r="L18">
-        <v>224084000</v>
+        <v>670209000</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1616981000</v>
+        <v>1642339000</v>
       </c>
       <c r="O18">
-        <v>238646000</v>
+        <v>250251000</v>
       </c>
       <c r="P18">
-        <v>2079711000</v>
+        <v>2562799000</v>
       </c>
       <c r="Q18">
-        <v>1121906000</v>
+        <v>1148435000</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -3928,19 +3922,19 @@
         <v>0</v>
       </c>
       <c r="W18">
-        <v>642476000</v>
+        <v>557609000</v>
       </c>
       <c r="X18">
-        <v>1764382000</v>
+        <v>1706044000</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>3844093000</v>
+        <v>4268843000</v>
       </c>
       <c r="AA18">
-        <v>570605000</v>
+        <v>514734000</v>
       </c>
       <c r="AB18">
         <v>0</v>
@@ -3952,10 +3946,10 @@
         <v>0</v>
       </c>
       <c r="AE18">
-        <v>443507000</v>
+        <v>438234000</v>
       </c>
       <c r="AF18">
-        <v>1014112000</v>
+        <v>952968000</v>
       </c>
       <c r="AG18">
         <v>0</v>
@@ -3967,10 +3961,10 @@
         <v>0</v>
       </c>
       <c r="AJ18">
-        <v>268153000</v>
+        <v>315421000</v>
       </c>
       <c r="AK18">
-        <v>268153000</v>
+        <v>315421000</v>
       </c>
       <c r="AL18">
         <v>0</v>
@@ -3979,37 +3973,37 @@
         <v>0</v>
       </c>
       <c r="AN18">
-        <v>1282265000</v>
+        <v>1268389000</v>
       </c>
       <c r="AO18">
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>3122000</v>
+        <v>3147000</v>
       </c>
       <c r="AQ18">
-        <v>3729766000</v>
+        <v>4154921000</v>
       </c>
       <c r="AR18">
-        <v>-1038000</v>
+        <v>-4540000</v>
       </c>
       <c r="AS18">
-        <v>-1170022000</v>
+        <v>-1153074000</v>
       </c>
       <c r="AT18">
-        <v>2561828000</v>
+        <v>3000454000</v>
       </c>
       <c r="AU18">
-        <v>2561828000</v>
+        <v>3000454000</v>
       </c>
       <c r="AV18">
-        <v>3844093000</v>
+        <v>4268843000</v>
       </c>
       <c r="AW18">
         <v>0</v>
       </c>
       <c r="AX18">
-        <v>3844093000</v>
+        <v>4268843000</v>
       </c>
       <c r="AY18">
         <v>0</v>
@@ -4018,13 +4012,13 @@
         <v>0</v>
       </c>
       <c r="BA18">
-        <v>-224084000</v>
+        <v>-668209000</v>
       </c>
       <c r="BB18" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="BC18" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="19" spans="1:55">
@@ -4032,52 +4026,52 @@
         <v>72</v>
       </c>
       <c r="B19" s="2">
-        <v>39872</v>
+        <v>40236</v>
       </c>
       <c r="C19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19" t="s">
         <v>86</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>87</v>
       </c>
-      <c r="E19" t="s">
-        <v>88</v>
-      </c>
       <c r="F19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G19" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H19" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="I19" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="J19">
-        <v>668209000</v>
+        <v>1096100000</v>
       </c>
       <c r="K19">
-        <v>2000000</v>
+        <v>431476000</v>
       </c>
       <c r="L19">
-        <v>670209000</v>
+        <v>1527576000</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1642339000</v>
+        <v>1759703000</v>
       </c>
       <c r="O19">
-        <v>250251000</v>
+        <v>276066000</v>
       </c>
       <c r="P19">
-        <v>2562799000</v>
+        <v>3563345000</v>
       </c>
       <c r="Q19">
-        <v>1148435000</v>
+        <v>1119292000</v>
       </c>
       <c r="R19">
         <v>0</v>
@@ -4089,43 +4083,43 @@
         <v>0</v>
       </c>
       <c r="U19">
-        <v>0</v>
+        <v>132860000</v>
       </c>
       <c r="V19">
         <v>0</v>
       </c>
       <c r="W19">
-        <v>557609000</v>
+        <v>336633000</v>
       </c>
       <c r="X19">
-        <v>1706044000</v>
+        <v>1588785000</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>4268843000</v>
+        <v>5152130000</v>
       </c>
       <c r="AA19">
-        <v>514734000</v>
+        <v>611163000</v>
       </c>
       <c r="AB19">
-        <v>0</v>
+        <v>172804000</v>
       </c>
       <c r="AC19">
-        <v>0</v>
+        <v>83857000</v>
       </c>
       <c r="AD19">
         <v>0</v>
       </c>
       <c r="AE19">
-        <v>438234000</v>
+        <v>281730000</v>
       </c>
       <c r="AF19">
-        <v>952968000</v>
+        <v>1149554000</v>
       </c>
       <c r="AG19">
-        <v>0</v>
+        <v>103399000</v>
       </c>
       <c r="AH19">
         <v>0</v>
@@ -4134,10 +4128,10 @@
         <v>0</v>
       </c>
       <c r="AJ19">
-        <v>315421000</v>
+        <v>246273000</v>
       </c>
       <c r="AK19">
-        <v>315421000</v>
+        <v>349672000</v>
       </c>
       <c r="AL19">
         <v>0</v>
@@ -4146,52 +4140,52 @@
         <v>0</v>
       </c>
       <c r="AN19">
-        <v>1268389000</v>
+        <v>1499226000</v>
       </c>
       <c r="AO19">
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>3147000</v>
+        <v>3206000</v>
       </c>
       <c r="AQ19">
-        <v>4154921000</v>
+        <v>4754954000</v>
       </c>
       <c r="AR19">
-        <v>-4540000</v>
+        <v>728000</v>
       </c>
       <c r="AS19">
-        <v>-1153074000</v>
+        <v>-1105984000</v>
       </c>
       <c r="AT19">
-        <v>3000454000</v>
+        <v>3652904000</v>
       </c>
       <c r="AU19">
-        <v>3000454000</v>
+        <v>3652904000</v>
       </c>
       <c r="AV19">
-        <v>4268843000</v>
+        <v>5152130000</v>
       </c>
       <c r="AW19">
         <v>0</v>
       </c>
       <c r="AX19">
-        <v>4268843000</v>
+        <v>5152130000</v>
       </c>
       <c r="AY19">
-        <v>0</v>
+        <v>564336000</v>
       </c>
       <c r="AZ19">
-        <v>0</v>
+        <v>276203000</v>
       </c>
       <c r="BA19">
-        <v>-668209000</v>
+        <v>-819897000</v>
       </c>
       <c r="BB19" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="BC19" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="20" spans="1:55">
@@ -4199,52 +4193,52 @@
         <v>73</v>
       </c>
       <c r="B20" s="2">
-        <v>40236</v>
+        <v>40600</v>
       </c>
       <c r="C20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" t="s">
         <v>86</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>87</v>
       </c>
-      <c r="E20" t="s">
-        <v>88</v>
-      </c>
       <c r="F20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G20" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H20" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="I20" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="J20">
-        <v>1096100000</v>
+        <v>1183587000</v>
       </c>
       <c r="K20">
-        <v>431476000</v>
+        <v>605608000</v>
       </c>
       <c r="L20">
-        <v>1527576000</v>
+        <v>1789195000</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1759703000</v>
+        <v>1968907000</v>
       </c>
       <c r="O20">
-        <v>276066000</v>
+        <v>315736000</v>
       </c>
       <c r="P20">
-        <v>3563345000</v>
+        <v>4073838000</v>
       </c>
       <c r="Q20">
-        <v>1119292000</v>
+        <v>1116297000</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -4256,55 +4250,55 @@
         <v>0</v>
       </c>
       <c r="U20">
-        <v>132860000</v>
+        <v>121446000</v>
       </c>
       <c r="V20">
         <v>0</v>
       </c>
       <c r="W20">
-        <v>336633000</v>
+        <v>334612000</v>
       </c>
       <c r="X20">
-        <v>1588785000</v>
+        <v>1572355000</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>5152130000</v>
+        <v>5646193000</v>
       </c>
       <c r="AA20">
-        <v>611163000</v>
+        <v>709550000</v>
       </c>
       <c r="AB20">
-        <v>172804000</v>
+        <v>193061000</v>
       </c>
       <c r="AC20">
-        <v>83857000</v>
+        <v>112982000</v>
       </c>
       <c r="AD20">
         <v>0</v>
       </c>
       <c r="AE20">
-        <v>281730000</v>
+        <v>306847000</v>
       </c>
       <c r="AF20">
-        <v>1149554000</v>
+        <v>1322440000</v>
       </c>
       <c r="AG20">
-        <v>103399000</v>
+        <v>0</v>
       </c>
       <c r="AH20">
-        <v>0</v>
+        <v>292364000</v>
       </c>
       <c r="AI20">
         <v>0</v>
       </c>
       <c r="AJ20">
-        <v>246273000</v>
+        <v>99730000</v>
       </c>
       <c r="AK20">
-        <v>349672000</v>
+        <v>392094000</v>
       </c>
       <c r="AL20">
         <v>0</v>
@@ -4313,52 +4307,52 @@
         <v>0</v>
       </c>
       <c r="AN20">
-        <v>1499226000</v>
+        <v>1714534000</v>
       </c>
       <c r="AO20">
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>3206000</v>
+        <v>3253000</v>
       </c>
       <c r="AQ20">
-        <v>4754954000</v>
+        <v>5546287000</v>
       </c>
       <c r="AR20">
-        <v>728000</v>
+        <v>5100000</v>
       </c>
       <c r="AS20">
-        <v>-1105984000</v>
+        <v>-1622981000</v>
       </c>
       <c r="AT20">
-        <v>3652904000</v>
+        <v>3931659000</v>
       </c>
       <c r="AU20">
-        <v>3652904000</v>
+        <v>3931659000</v>
       </c>
       <c r="AV20">
-        <v>5152130000</v>
+        <v>5646193000</v>
       </c>
       <c r="AW20">
         <v>0</v>
       </c>
       <c r="AX20">
-        <v>5152130000</v>
+        <v>5646193000</v>
       </c>
       <c r="AY20">
-        <v>564336000</v>
+        <v>727054000</v>
       </c>
       <c r="AZ20">
-        <v>276203000</v>
+        <v>193061000</v>
       </c>
       <c r="BA20">
-        <v>-819897000</v>
+        <v>-990526000</v>
       </c>
       <c r="BB20" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="BC20" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="21" spans="1:55">
@@ -4366,52 +4360,52 @@
         <v>74</v>
       </c>
       <c r="B21" s="2">
-        <v>40600</v>
+        <v>40964</v>
       </c>
       <c r="C21" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" t="s">
         <v>86</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>87</v>
       </c>
-      <c r="E21" t="s">
-        <v>88</v>
-      </c>
       <c r="F21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G21" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H21" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I21" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="J21">
-        <v>1183587000</v>
+        <v>1003166000</v>
       </c>
       <c r="K21">
-        <v>605608000</v>
+        <v>756389000</v>
       </c>
       <c r="L21">
-        <v>1789195000</v>
+        <v>1759555000</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1968907000</v>
+        <v>2071890000</v>
       </c>
       <c r="O21">
-        <v>315736000</v>
+        <v>311494000</v>
       </c>
       <c r="P21">
-        <v>4073838000</v>
+        <v>4142939000</v>
       </c>
       <c r="Q21">
-        <v>1116297000</v>
+        <v>1198255000</v>
       </c>
       <c r="R21">
         <v>0</v>
@@ -4423,55 +4417,55 @@
         <v>0</v>
       </c>
       <c r="U21">
-        <v>121446000</v>
+        <v>95785000</v>
       </c>
       <c r="V21">
         <v>0</v>
       </c>
       <c r="W21">
-        <v>334612000</v>
+        <v>287567000</v>
       </c>
       <c r="X21">
-        <v>1572355000</v>
+        <v>1581607000</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>5646193000</v>
+        <v>5724546000</v>
       </c>
       <c r="AA21">
-        <v>709550000</v>
+        <v>752064000</v>
       </c>
       <c r="AB21">
-        <v>193061000</v>
+        <v>0</v>
       </c>
       <c r="AC21">
-        <v>112982000</v>
+        <v>48246000</v>
       </c>
       <c r="AD21">
         <v>0</v>
       </c>
       <c r="AE21">
-        <v>306847000</v>
+        <v>538820000</v>
       </c>
       <c r="AF21">
-        <v>1322440000</v>
+        <v>1339130000</v>
       </c>
       <c r="AG21">
         <v>0</v>
       </c>
       <c r="AH21">
-        <v>292364000</v>
+        <v>0</v>
       </c>
       <c r="AI21">
         <v>0</v>
       </c>
       <c r="AJ21">
-        <v>99730000</v>
+        <v>462888000</v>
       </c>
       <c r="AK21">
-        <v>392094000</v>
+        <v>462888000</v>
       </c>
       <c r="AL21">
         <v>0</v>
@@ -4480,52 +4474,52 @@
         <v>0</v>
       </c>
       <c r="AN21">
-        <v>1714534000</v>
+        <v>1802018000</v>
       </c>
       <c r="AO21">
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>3253000</v>
+        <v>3306000</v>
       </c>
       <c r="AQ21">
-        <v>5546287000</v>
+        <v>6535824000</v>
       </c>
       <c r="AR21">
-        <v>5100000</v>
+        <v>-1879000</v>
       </c>
       <c r="AS21">
-        <v>-1622981000</v>
+        <v>-2614723000</v>
       </c>
       <c r="AT21">
-        <v>3931659000</v>
+        <v>3922528000</v>
       </c>
       <c r="AU21">
-        <v>3931659000</v>
+        <v>3922528000</v>
       </c>
       <c r="AV21">
-        <v>5646193000</v>
+        <v>5724546000</v>
       </c>
       <c r="AW21">
         <v>0</v>
       </c>
       <c r="AX21">
-        <v>5646193000</v>
+        <v>5724546000</v>
       </c>
       <c r="AY21">
-        <v>727054000</v>
+        <v>852174000</v>
       </c>
       <c r="AZ21">
-        <v>193061000</v>
+        <v>0</v>
       </c>
       <c r="BA21">
-        <v>-990526000</v>
+        <v>-1003166000</v>
       </c>
       <c r="BB21" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="BC21" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="22" spans="1:55">
@@ -4533,97 +4527,97 @@
         <v>75</v>
       </c>
       <c r="B22" s="2">
-        <v>40964</v>
+        <v>41335</v>
       </c>
       <c r="C22" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" t="s">
         <v>86</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>87</v>
       </c>
-      <c r="E22" t="s">
-        <v>88</v>
-      </c>
       <c r="F22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G22" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H22" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="I22" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="J22">
-        <v>1003166000</v>
+        <v>564971000</v>
       </c>
       <c r="K22">
-        <v>756389000</v>
+        <v>449933000</v>
       </c>
       <c r="L22">
-        <v>1759555000</v>
+        <v>1014904000</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>2071890000</v>
+        <v>2466214000</v>
       </c>
       <c r="O22">
-        <v>311494000</v>
+        <v>386367000</v>
       </c>
       <c r="P22">
-        <v>4142939000</v>
+        <v>3867485000</v>
       </c>
       <c r="Q22">
-        <v>1198255000</v>
+        <v>1466667000</v>
       </c>
       <c r="R22">
-        <v>0</v>
+        <v>483518000</v>
       </c>
       <c r="S22">
         <v>0</v>
       </c>
       <c r="T22">
-        <v>0</v>
+        <v>483518000</v>
       </c>
       <c r="U22">
-        <v>95785000</v>
+        <v>77325000</v>
       </c>
       <c r="V22">
         <v>0</v>
       </c>
       <c r="W22">
-        <v>287567000</v>
+        <v>384957000</v>
       </c>
       <c r="X22">
-        <v>1581607000</v>
+        <v>2412467000</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>5724546000</v>
+        <v>6279952000</v>
       </c>
       <c r="AA22">
-        <v>752064000</v>
+        <v>913365000</v>
       </c>
       <c r="AB22">
         <v>0</v>
       </c>
       <c r="AC22">
-        <v>48246000</v>
+        <v>77270000</v>
       </c>
       <c r="AD22">
-        <v>0</v>
+        <v>251481000</v>
       </c>
       <c r="AE22">
-        <v>538820000</v>
+        <v>393094000</v>
       </c>
       <c r="AF22">
-        <v>1339130000</v>
+        <v>1635210000</v>
       </c>
       <c r="AG22">
         <v>0</v>
@@ -4635,10 +4629,10 @@
         <v>0</v>
       </c>
       <c r="AJ22">
-        <v>462888000</v>
+        <v>565012000</v>
       </c>
       <c r="AK22">
-        <v>462888000</v>
+        <v>565012000</v>
       </c>
       <c r="AL22">
         <v>0</v>
@@ -4647,52 +4641,52 @@
         <v>0</v>
       </c>
       <c r="AN22">
-        <v>1802018000</v>
+        <v>2200222000</v>
       </c>
       <c r="AO22">
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>3306000</v>
+        <v>3327000</v>
       </c>
       <c r="AQ22">
-        <v>6535824000</v>
+        <v>7573612000</v>
       </c>
       <c r="AR22">
-        <v>-1879000</v>
+        <v>-4320000</v>
       </c>
       <c r="AS22">
-        <v>-2614723000</v>
+        <v>-3492889000</v>
       </c>
       <c r="AT22">
-        <v>3922528000</v>
+        <v>4079730000</v>
       </c>
       <c r="AU22">
-        <v>3922528000</v>
+        <v>4079730000</v>
       </c>
       <c r="AV22">
-        <v>5724546000</v>
+        <v>6279952000</v>
       </c>
       <c r="AW22">
         <v>0</v>
       </c>
       <c r="AX22">
-        <v>5724546000</v>
+        <v>6279952000</v>
       </c>
       <c r="AY22">
-        <v>852174000</v>
+        <v>527258000</v>
       </c>
       <c r="AZ22">
         <v>0</v>
       </c>
       <c r="BA22">
-        <v>-1003166000</v>
+        <v>-564971000</v>
       </c>
       <c r="BB22" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="BC22" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="23" spans="1:55">
@@ -4700,97 +4694,97 @@
         <v>76</v>
       </c>
       <c r="B23" s="2">
-        <v>41335</v>
+        <v>41699</v>
       </c>
       <c r="C23" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" t="s">
         <v>86</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>87</v>
       </c>
-      <c r="E23" t="s">
-        <v>88</v>
-      </c>
       <c r="F23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G23" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H23" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I23" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="J23">
-        <v>564971000</v>
+        <v>366516000</v>
       </c>
       <c r="K23">
-        <v>449933000</v>
+        <v>489331000</v>
       </c>
       <c r="L23">
-        <v>1014904000</v>
+        <v>855847000</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>2466214000</v>
+        <v>2578956000</v>
       </c>
       <c r="O23">
-        <v>386367000</v>
+        <v>379807000</v>
       </c>
       <c r="P23">
-        <v>3867485000</v>
+        <v>3814610000</v>
       </c>
       <c r="Q23">
-        <v>1466667000</v>
+        <v>1579804000</v>
       </c>
       <c r="R23">
-        <v>483518000</v>
+        <v>486279000</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>483518000</v>
+        <v>486279000</v>
       </c>
       <c r="U23">
-        <v>77325000</v>
+        <v>87393000</v>
       </c>
       <c r="V23">
         <v>0</v>
       </c>
       <c r="W23">
-        <v>384957000</v>
+        <v>387947000</v>
       </c>
       <c r="X23">
-        <v>2412467000</v>
+        <v>2541423000</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>6279952000</v>
+        <v>6356033000</v>
       </c>
       <c r="AA23">
-        <v>913365000</v>
+        <v>1104668000</v>
       </c>
       <c r="AB23">
         <v>0</v>
       </c>
       <c r="AC23">
-        <v>77270000</v>
+        <v>65121000</v>
       </c>
       <c r="AD23">
-        <v>251481000</v>
+        <v>284216000</v>
       </c>
       <c r="AE23">
-        <v>393094000</v>
+        <v>385954000</v>
       </c>
       <c r="AF23">
-        <v>1635210000</v>
+        <v>1839959000</v>
       </c>
       <c r="AG23">
         <v>0</v>
@@ -4802,10 +4796,10 @@
         <v>0</v>
       </c>
       <c r="AJ23">
-        <v>565012000</v>
+        <v>574787000</v>
       </c>
       <c r="AK23">
-        <v>565012000</v>
+        <v>574787000</v>
       </c>
       <c r="AL23">
         <v>0</v>
@@ -4814,52 +4808,52 @@
         <v>0</v>
       </c>
       <c r="AN23">
-        <v>2200222000</v>
+        <v>2414746000</v>
       </c>
       <c r="AO23">
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>3327000</v>
+        <v>3350000</v>
       </c>
       <c r="AQ23">
-        <v>7573612000</v>
+        <v>8595902000</v>
       </c>
       <c r="AR23">
-        <v>-4320000</v>
+        <v>-13847000</v>
       </c>
       <c r="AS23">
-        <v>-3492889000</v>
+        <v>-4644118000</v>
       </c>
       <c r="AT23">
-        <v>4079730000</v>
+        <v>3941287000</v>
       </c>
       <c r="AU23">
-        <v>4079730000</v>
+        <v>3941287000</v>
       </c>
       <c r="AV23">
-        <v>6279952000</v>
+        <v>6356033000</v>
       </c>
       <c r="AW23">
         <v>0</v>
       </c>
       <c r="AX23">
-        <v>6279952000</v>
+        <v>6356033000</v>
       </c>
       <c r="AY23">
-        <v>527258000</v>
+        <v>576724000</v>
       </c>
       <c r="AZ23">
         <v>0</v>
       </c>
       <c r="BA23">
-        <v>-564971000</v>
+        <v>-366516000</v>
       </c>
       <c r="BB23" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="BC23" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="24" spans="1:55">
@@ -4867,52 +4861,52 @@
         <v>77</v>
       </c>
       <c r="B24" s="2">
-        <v>41699</v>
+        <v>42063</v>
       </c>
       <c r="C24" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" t="s">
         <v>86</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>87</v>
       </c>
-      <c r="E24" t="s">
-        <v>88</v>
-      </c>
       <c r="F24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G24" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H24" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="I24" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="J24">
-        <v>366516000</v>
+        <v>875574000</v>
       </c>
       <c r="K24">
-        <v>489331000</v>
+        <v>109992000</v>
       </c>
       <c r="L24">
-        <v>855847000</v>
+        <v>985566000</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>2578956000</v>
+        <v>2731881000</v>
       </c>
       <c r="O24">
-        <v>379807000</v>
+        <v>366156000</v>
       </c>
       <c r="P24">
-        <v>3814610000</v>
+        <v>4083603000</v>
       </c>
       <c r="Q24">
-        <v>1579804000</v>
+        <v>1676700000</v>
       </c>
       <c r="R24">
         <v>486279000</v>
@@ -4924,43 +4918,43 @@
         <v>486279000</v>
       </c>
       <c r="U24">
-        <v>87393000</v>
+        <v>97160000</v>
       </c>
       <c r="V24">
         <v>0</v>
       </c>
       <c r="W24">
-        <v>387947000</v>
+        <v>415251000</v>
       </c>
       <c r="X24">
-        <v>2541423000</v>
+        <v>2675390000</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>6356033000</v>
+        <v>6758993000</v>
       </c>
       <c r="AA24">
-        <v>1104668000</v>
+        <v>1156368000</v>
       </c>
       <c r="AB24">
         <v>0</v>
       </c>
       <c r="AC24">
-        <v>65121000</v>
+        <v>76606000</v>
       </c>
       <c r="AD24">
-        <v>284216000</v>
+        <v>306160000</v>
       </c>
       <c r="AE24">
-        <v>385954000</v>
+        <v>403547000</v>
       </c>
       <c r="AF24">
-        <v>1839959000</v>
+        <v>1942681000</v>
       </c>
       <c r="AG24">
-        <v>0</v>
+        <v>1500000000</v>
       </c>
       <c r="AH24">
         <v>0</v>
@@ -4969,10 +4963,10 @@
         <v>0</v>
       </c>
       <c r="AJ24">
-        <v>574787000</v>
+        <v>573122000</v>
       </c>
       <c r="AK24">
-        <v>574787000</v>
+        <v>2073122000</v>
       </c>
       <c r="AL24">
         <v>0</v>
@@ -4981,52 +4975,52 @@
         <v>0</v>
       </c>
       <c r="AN24">
-        <v>2414746000</v>
+        <v>4015803000</v>
       </c>
       <c r="AO24">
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>3350000</v>
+        <v>3367000</v>
       </c>
       <c r="AQ24">
-        <v>8595902000</v>
+        <v>9553376000</v>
       </c>
       <c r="AR24">
-        <v>-13847000</v>
+        <v>-42313000</v>
       </c>
       <c r="AS24">
-        <v>-4644118000</v>
+        <v>-6771240000</v>
       </c>
       <c r="AT24">
-        <v>3941287000</v>
+        <v>2743190000</v>
       </c>
       <c r="AU24">
-        <v>3941287000</v>
+        <v>2743190000</v>
       </c>
       <c r="AV24">
-        <v>6356033000</v>
+        <v>6758993000</v>
       </c>
       <c r="AW24">
         <v>0</v>
       </c>
       <c r="AX24">
-        <v>6356033000</v>
+        <v>6758993000</v>
       </c>
       <c r="AY24">
-        <v>576724000</v>
+        <v>207152000</v>
       </c>
       <c r="AZ24">
-        <v>0</v>
+        <v>1500000000</v>
       </c>
       <c r="BA24">
-        <v>-366516000</v>
+        <v>624426000</v>
       </c>
       <c r="BB24" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="BC24" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="25" spans="1:55">
@@ -5034,97 +5028,97 @@
         <v>78</v>
       </c>
       <c r="B25" s="2">
-        <v>42063</v>
+        <v>42427</v>
       </c>
       <c r="C25" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" t="s">
         <v>86</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>87</v>
       </c>
-      <c r="E25" t="s">
-        <v>88</v>
-      </c>
       <c r="F25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G25" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H25" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="I25" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="J25">
-        <v>875574000</v>
+        <v>515573000</v>
       </c>
       <c r="K25">
-        <v>109992000</v>
+        <v>86197000</v>
       </c>
       <c r="L25">
-        <v>985566000</v>
+        <v>601770000</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>2731881000</v>
+        <v>2848119000</v>
       </c>
       <c r="O25">
-        <v>366156000</v>
+        <v>376073000</v>
       </c>
       <c r="P25">
-        <v>4083603000</v>
+        <v>3825962000</v>
       </c>
       <c r="Q25">
-        <v>1676700000</v>
+        <v>1725043000</v>
       </c>
       <c r="R25">
-        <v>486279000</v>
+        <v>487169000</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>486279000</v>
+        <v>487169000</v>
       </c>
       <c r="U25">
-        <v>97160000</v>
+        <v>71289000</v>
       </c>
       <c r="V25">
         <v>0</v>
       </c>
       <c r="W25">
-        <v>415251000</v>
+        <v>389477000</v>
       </c>
       <c r="X25">
-        <v>2675390000</v>
+        <v>2672978000</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>6758993000</v>
+        <v>6498940000</v>
       </c>
       <c r="AA25">
-        <v>1156368000</v>
+        <v>1100958000</v>
       </c>
       <c r="AB25">
         <v>0</v>
       </c>
       <c r="AC25">
-        <v>76606000</v>
+        <v>58892000</v>
       </c>
       <c r="AD25">
-        <v>306160000</v>
+        <v>297930000</v>
       </c>
       <c r="AE25">
-        <v>403547000</v>
+        <v>409445000</v>
       </c>
       <c r="AF25">
-        <v>1942681000</v>
+        <v>1867225000</v>
       </c>
       <c r="AG25">
         <v>1500000000</v>
@@ -5136,10 +5130,10 @@
         <v>0</v>
       </c>
       <c r="AJ25">
-        <v>573122000</v>
+        <v>572175000</v>
       </c>
       <c r="AK25">
-        <v>2073122000</v>
+        <v>2072175000</v>
       </c>
       <c r="AL25">
         <v>0</v>
@@ -5148,52 +5142,52 @@
         <v>0</v>
       </c>
       <c r="AN25">
-        <v>4015803000</v>
+        <v>3939400000</v>
       </c>
       <c r="AO25">
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>3367000</v>
+        <v>3377000</v>
       </c>
       <c r="AQ25">
-        <v>9553376000</v>
+        <v>10394865000</v>
       </c>
       <c r="AR25">
-        <v>-42313000</v>
+        <v>-54998000</v>
       </c>
       <c r="AS25">
-        <v>-6771240000</v>
+        <v>-7783704000</v>
       </c>
       <c r="AT25">
-        <v>2743190000</v>
+        <v>2559540000</v>
       </c>
       <c r="AU25">
-        <v>2743190000</v>
+        <v>2559540000</v>
       </c>
       <c r="AV25">
-        <v>6758993000</v>
+        <v>6498940000</v>
       </c>
       <c r="AW25">
         <v>0</v>
       </c>
       <c r="AX25">
-        <v>6758993000</v>
+        <v>6498940000</v>
       </c>
       <c r="AY25">
-        <v>207152000</v>
+        <v>157486000</v>
       </c>
       <c r="AZ25">
         <v>1500000000</v>
       </c>
       <c r="BA25">
-        <v>624426000</v>
+        <v>984427000</v>
       </c>
       <c r="BB25" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="BC25" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="26" spans="1:55">
@@ -5201,100 +5195,100 @@
         <v>79</v>
       </c>
       <c r="B26" s="2">
-        <v>42427</v>
+        <v>42791</v>
       </c>
       <c r="C26" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" t="s">
         <v>86</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>87</v>
       </c>
-      <c r="E26" t="s">
-        <v>88</v>
-      </c>
       <c r="F26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G26" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H26" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I26" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="J26">
-        <v>515573000</v>
+        <v>488329000</v>
       </c>
       <c r="K26">
-        <v>86197000</v>
+        <v>0</v>
       </c>
       <c r="L26">
-        <v>601770000</v>
+        <v>488329000</v>
       </c>
       <c r="M26">
         <v>0</v>
       </c>
       <c r="N26">
-        <v>2848119000</v>
+        <v>2905660000</v>
       </c>
       <c r="O26">
-        <v>376073000</v>
+        <v>416755000</v>
       </c>
       <c r="P26">
-        <v>3825962000</v>
+        <v>3810744000</v>
       </c>
       <c r="Q26">
-        <v>1725043000</v>
+        <v>1837129000</v>
       </c>
       <c r="R26">
-        <v>487169000</v>
+        <v>697085000</v>
       </c>
       <c r="S26">
         <v>0</v>
       </c>
       <c r="T26">
-        <v>487169000</v>
+        <v>697085000</v>
       </c>
       <c r="U26">
-        <v>71289000</v>
+        <v>89592000</v>
       </c>
       <c r="V26">
         <v>0</v>
       </c>
       <c r="W26">
-        <v>389477000</v>
+        <v>411479000</v>
       </c>
       <c r="X26">
-        <v>2672978000</v>
+        <v>3035285000</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>6498940000</v>
+        <v>6846029000</v>
       </c>
       <c r="AA26">
-        <v>1100958000</v>
+        <v>1179088000</v>
       </c>
       <c r="AB26">
         <v>0</v>
       </c>
       <c r="AC26">
-        <v>58892000</v>
+        <v>59821000</v>
       </c>
       <c r="AD26">
-        <v>297930000</v>
+        <v>309478000</v>
       </c>
       <c r="AE26">
-        <v>409445000</v>
+        <v>484114000</v>
       </c>
       <c r="AF26">
-        <v>1867225000</v>
+        <v>2032501000</v>
       </c>
       <c r="AG26">
-        <v>1500000000</v>
+        <v>1491603000</v>
       </c>
       <c r="AH26">
         <v>0</v>
@@ -5303,10 +5297,10 @@
         <v>0</v>
       </c>
       <c r="AJ26">
-        <v>572175000</v>
+        <v>602648000</v>
       </c>
       <c r="AK26">
-        <v>2072175000</v>
+        <v>2094251000</v>
       </c>
       <c r="AL26">
         <v>0</v>
@@ -5315,52 +5309,52 @@
         <v>0</v>
       </c>
       <c r="AN26">
-        <v>3939400000</v>
+        <v>4126752000</v>
       </c>
       <c r="AO26">
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>3377000</v>
+        <v>3395000</v>
       </c>
       <c r="AQ26">
-        <v>10394865000</v>
+        <v>11003890000</v>
       </c>
       <c r="AR26">
-        <v>-54998000</v>
+        <v>-47250000</v>
       </c>
       <c r="AS26">
-        <v>-7783704000</v>
+        <v>-8240758000</v>
       </c>
       <c r="AT26">
-        <v>2559540000</v>
+        <v>2719277000</v>
       </c>
       <c r="AU26">
-        <v>2559540000</v>
+        <v>2719277000</v>
       </c>
       <c r="AV26">
-        <v>6498940000</v>
+        <v>6846029000</v>
       </c>
       <c r="AW26">
         <v>0</v>
       </c>
       <c r="AX26">
-        <v>6498940000</v>
+        <v>6846029000</v>
       </c>
       <c r="AY26">
-        <v>157486000</v>
+        <v>0</v>
       </c>
       <c r="AZ26">
-        <v>1500000000</v>
+        <v>1491603000</v>
       </c>
       <c r="BA26">
-        <v>984427000</v>
+        <v>1003274000</v>
       </c>
       <c r="BB26" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="BC26" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="27" spans="1:55">
@@ -5368,100 +5362,100 @@
         <v>80</v>
       </c>
       <c r="B27" s="2">
-        <v>42791</v>
+        <v>43162</v>
       </c>
       <c r="C27" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27" t="s">
         <v>86</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>87</v>
       </c>
-      <c r="E27" t="s">
-        <v>88</v>
-      </c>
       <c r="F27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G27" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H27" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="I27" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="J27">
-        <v>488329000</v>
+        <v>346140000</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>378039000</v>
       </c>
       <c r="L27">
-        <v>488329000</v>
+        <v>724179000</v>
       </c>
       <c r="M27">
         <v>0</v>
       </c>
       <c r="N27">
-        <v>2905660000</v>
+        <v>2730874000</v>
       </c>
       <c r="O27">
-        <v>416755000</v>
+        <v>516025000</v>
       </c>
       <c r="P27">
-        <v>3810744000</v>
+        <v>3971078000</v>
       </c>
       <c r="Q27">
-        <v>1837129000</v>
+        <v>1909289000</v>
       </c>
       <c r="R27">
-        <v>697085000</v>
+        <v>716283000</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>697085000</v>
+        <v>716283000</v>
       </c>
       <c r="U27">
-        <v>89592000</v>
+        <v>19517000</v>
       </c>
       <c r="V27">
         <v>0</v>
       </c>
       <c r="W27">
-        <v>411479000</v>
+        <v>424639000</v>
       </c>
       <c r="X27">
-        <v>3035285000</v>
+        <v>3069728000</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>6846029000</v>
+        <v>7040806000</v>
       </c>
       <c r="AA27">
-        <v>1179088000</v>
+        <v>1197504000</v>
       </c>
       <c r="AB27">
         <v>0</v>
       </c>
       <c r="AC27">
-        <v>59821000</v>
+        <v>0</v>
       </c>
       <c r="AD27">
-        <v>309478000</v>
+        <v>335081000</v>
       </c>
       <c r="AE27">
-        <v>484114000</v>
+        <v>633100000</v>
       </c>
       <c r="AF27">
-        <v>2032501000</v>
+        <v>2165685000</v>
       </c>
       <c r="AG27">
-        <v>1491603000</v>
+        <v>1492078000</v>
       </c>
       <c r="AH27">
         <v>0</v>
@@ -5470,10 +5464,10 @@
         <v>0</v>
       </c>
       <c r="AJ27">
-        <v>602648000</v>
+        <v>494415000</v>
       </c>
       <c r="AK27">
-        <v>2094251000</v>
+        <v>1986493000</v>
       </c>
       <c r="AL27">
         <v>0</v>
@@ -5482,52 +5476,52 @@
         <v>0</v>
       </c>
       <c r="AN27">
-        <v>4126752000</v>
+        <v>4152178000</v>
       </c>
       <c r="AO27">
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>3395000</v>
+        <v>3418000</v>
       </c>
       <c r="AQ27">
-        <v>11003890000</v>
+        <v>11343503000</v>
       </c>
       <c r="AR27">
-        <v>-47250000</v>
+        <v>-48296000</v>
       </c>
       <c r="AS27">
-        <v>-8240758000</v>
+        <v>-8409997000</v>
       </c>
       <c r="AT27">
-        <v>2719277000</v>
+        <v>2888628000</v>
       </c>
       <c r="AU27">
-        <v>2719277000</v>
+        <v>2888628000</v>
       </c>
       <c r="AV27">
-        <v>6846029000</v>
+        <v>7040806000</v>
       </c>
       <c r="AW27">
         <v>0</v>
       </c>
       <c r="AX27">
-        <v>6846029000</v>
+        <v>7040806000</v>
       </c>
       <c r="AY27">
-        <v>0</v>
+        <v>397556000</v>
       </c>
       <c r="AZ27">
-        <v>1491603000</v>
+        <v>1492078000</v>
       </c>
       <c r="BA27">
-        <v>1003274000</v>
+        <v>1145938000</v>
       </c>
       <c r="BB27" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="BC27" s="3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="28" spans="1:55">
@@ -5535,100 +5529,100 @@
         <v>81</v>
       </c>
       <c r="B28" s="2">
-        <v>43162</v>
+        <v>43526</v>
       </c>
       <c r="C28" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" t="s">
         <v>86</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>87</v>
       </c>
-      <c r="E28" t="s">
-        <v>88</v>
-      </c>
       <c r="F28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G28" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H28" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I28" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="J28">
-        <v>346140000</v>
+        <v>508971000</v>
       </c>
       <c r="K28">
-        <v>378039000</v>
+        <v>485799000</v>
       </c>
       <c r="L28">
-        <v>724179000</v>
+        <v>994770000</v>
       </c>
       <c r="M28">
         <v>0</v>
       </c>
       <c r="N28">
-        <v>2730874000</v>
+        <v>2618922000</v>
       </c>
       <c r="O28">
-        <v>516025000</v>
+        <v>296280000</v>
       </c>
       <c r="P28">
-        <v>3971078000</v>
+        <v>3909972000</v>
       </c>
       <c r="Q28">
-        <v>1909289000</v>
+        <v>1853091000</v>
       </c>
       <c r="R28">
-        <v>716283000</v>
+        <v>391052000</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>716283000</v>
+        <v>391052000</v>
       </c>
       <c r="U28">
-        <v>19517000</v>
+        <v>20010000</v>
       </c>
       <c r="V28">
         <v>0</v>
       </c>
       <c r="W28">
-        <v>424639000</v>
+        <v>396416000</v>
       </c>
       <c r="X28">
-        <v>3069728000</v>
+        <v>2660569000</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>7040806000</v>
+        <v>6570541000</v>
       </c>
       <c r="AA28">
-        <v>1197504000</v>
+        <v>1094078000</v>
       </c>
       <c r="AB28">
         <v>0</v>
       </c>
       <c r="AC28">
-        <v>0</v>
+        <v>20498000</v>
       </c>
       <c r="AD28">
-        <v>335081000</v>
+        <v>339322000</v>
       </c>
       <c r="AE28">
-        <v>633100000</v>
+        <v>623734000</v>
       </c>
       <c r="AF28">
-        <v>2165685000</v>
+        <v>2077632000</v>
       </c>
       <c r="AG28">
-        <v>1492078000</v>
+        <v>1487934000</v>
       </c>
       <c r="AH28">
         <v>0</v>
@@ -5637,10 +5631,10 @@
         <v>0</v>
       </c>
       <c r="AJ28">
-        <v>494415000</v>
+        <v>444644000</v>
       </c>
       <c r="AK28">
-        <v>1986493000</v>
+        <v>1932578000</v>
       </c>
       <c r="AL28">
         <v>0</v>
@@ -5649,52 +5643,52 @@
         <v>0</v>
       </c>
       <c r="AN28">
-        <v>4152178000</v>
+        <v>4010210000</v>
       </c>
       <c r="AO28">
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>3418000</v>
+        <v>3426000</v>
       </c>
       <c r="AQ28">
-        <v>11343503000</v>
+        <v>11112887000</v>
       </c>
       <c r="AR28">
-        <v>-48296000</v>
+        <v>-58610000</v>
       </c>
       <c r="AS28">
-        <v>-8409997000</v>
+        <v>-8497372000</v>
       </c>
       <c r="AT28">
-        <v>2888628000</v>
+        <v>2560331000</v>
       </c>
       <c r="AU28">
-        <v>2888628000</v>
+        <v>2560331000</v>
       </c>
       <c r="AV28">
-        <v>7040806000</v>
+        <v>6570541000</v>
       </c>
       <c r="AW28">
         <v>0</v>
       </c>
       <c r="AX28">
-        <v>7040806000</v>
+        <v>6570541000</v>
       </c>
       <c r="AY28">
-        <v>397556000</v>
+        <v>505809000</v>
       </c>
       <c r="AZ28">
-        <v>1492078000</v>
+        <v>1487934000</v>
       </c>
       <c r="BA28">
-        <v>1145938000</v>
+        <v>978963000</v>
       </c>
       <c r="BB28" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="BC28" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="29" spans="1:55">
@@ -5702,100 +5696,100 @@
         <v>82</v>
       </c>
       <c r="B29" s="2">
-        <v>43526</v>
+        <v>43890</v>
       </c>
       <c r="C29" t="s">
+        <v>85</v>
+      </c>
+      <c r="D29" t="s">
         <v>86</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>87</v>
       </c>
-      <c r="E29" t="s">
-        <v>88</v>
-      </c>
       <c r="F29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G29" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H29" t="s">
+        <v>175</v>
+      </c>
+      <c r="I29" t="s">
         <v>178</v>
       </c>
-      <c r="I29" t="s">
-        <v>182</v>
-      </c>
       <c r="J29">
-        <v>508971000</v>
+        <v>1000340000</v>
       </c>
       <c r="K29">
-        <v>485799000</v>
+        <v>385642000</v>
       </c>
       <c r="L29">
-        <v>994770000</v>
+        <v>1385982000</v>
       </c>
       <c r="M29">
         <v>0</v>
       </c>
       <c r="N29">
-        <v>2618922000</v>
+        <v>2093869000</v>
       </c>
       <c r="O29">
-        <v>296280000</v>
+        <v>346434000</v>
       </c>
       <c r="P29">
-        <v>3909972000</v>
+        <v>3826285000</v>
       </c>
       <c r="Q29">
-        <v>1853091000</v>
+        <v>3437570000</v>
       </c>
       <c r="R29">
-        <v>391052000</v>
+        <v>0</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>391052000</v>
+        <v>0</v>
       </c>
       <c r="U29">
-        <v>20010000</v>
+        <v>20380000</v>
       </c>
       <c r="V29">
         <v>0</v>
       </c>
       <c r="W29">
-        <v>396416000</v>
+        <v>506280000</v>
       </c>
       <c r="X29">
-        <v>2660569000</v>
+        <v>3964230000</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>6570541000</v>
+        <v>7790515000</v>
       </c>
       <c r="AA29">
-        <v>1094078000</v>
+        <v>944194000</v>
       </c>
       <c r="AB29">
-        <v>0</v>
+        <v>463005000</v>
       </c>
       <c r="AC29">
-        <v>20498000</v>
+        <v>0</v>
       </c>
       <c r="AD29">
-        <v>339322000</v>
+        <v>340407000</v>
       </c>
       <c r="AE29">
-        <v>623734000</v>
+        <v>718920000</v>
       </c>
       <c r="AF29">
-        <v>2077632000</v>
+        <v>2466526000</v>
       </c>
       <c r="AG29">
-        <v>1487934000</v>
+        <v>3307183000</v>
       </c>
       <c r="AH29">
         <v>0</v>
@@ -5804,64 +5798,64 @@
         <v>0</v>
       </c>
       <c r="AJ29">
-        <v>444644000</v>
+        <v>251871000</v>
       </c>
       <c r="AK29">
-        <v>1932578000</v>
+        <v>3559054000</v>
       </c>
       <c r="AL29">
         <v>0</v>
       </c>
       <c r="AM29">
-        <v>0</v>
+        <v>2281788000</v>
       </c>
       <c r="AN29">
-        <v>4010210000</v>
+        <v>6025580000</v>
       </c>
       <c r="AO29">
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>3426000</v>
+        <v>3436000</v>
       </c>
       <c r="AQ29">
-        <v>11112887000</v>
+        <v>10374826000</v>
       </c>
       <c r="AR29">
-        <v>-58610000</v>
+        <v>-64909000</v>
       </c>
       <c r="AS29">
-        <v>-8497372000</v>
+        <v>-8548418000</v>
       </c>
       <c r="AT29">
-        <v>2560331000</v>
+        <v>1764935000</v>
       </c>
       <c r="AU29">
-        <v>2560331000</v>
+        <v>1764935000</v>
       </c>
       <c r="AV29">
-        <v>6570541000</v>
+        <v>7790515000</v>
       </c>
       <c r="AW29">
         <v>0</v>
       </c>
       <c r="AX29">
-        <v>6570541000</v>
+        <v>7790515000</v>
       </c>
       <c r="AY29">
-        <v>505809000</v>
+        <v>406022000</v>
       </c>
       <c r="AZ29">
-        <v>1487934000</v>
+        <v>3770188000</v>
       </c>
       <c r="BA29">
-        <v>978963000</v>
+        <v>2769848000</v>
       </c>
       <c r="BB29" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="BC29" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="30" spans="1:55">
@@ -5869,52 +5863,52 @@
         <v>83</v>
       </c>
       <c r="B30" s="2">
-        <v>43890</v>
+        <v>44254</v>
       </c>
       <c r="C30" t="s">
+        <v>85</v>
+      </c>
+      <c r="D30" t="s">
         <v>86</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>87</v>
       </c>
-      <c r="E30" t="s">
-        <v>88</v>
-      </c>
       <c r="F30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G30" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H30" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="I30" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="J30">
-        <v>1000340000</v>
+        <v>1352984000</v>
       </c>
       <c r="K30">
-        <v>385642000</v>
+        <v>0</v>
       </c>
       <c r="L30">
-        <v>1385982000</v>
+        <v>1352984000</v>
       </c>
       <c r="M30">
-        <v>0</v>
+        <v>318100000</v>
       </c>
       <c r="N30">
-        <v>2093869000</v>
+        <v>1671909000</v>
       </c>
       <c r="O30">
-        <v>346434000</v>
+        <v>277052000</v>
       </c>
       <c r="P30">
-        <v>3826285000</v>
+        <v>3620045000</v>
       </c>
       <c r="Q30">
-        <v>3437570000</v>
+        <v>2505519000</v>
       </c>
       <c r="R30">
         <v>0</v>
@@ -5926,43 +5920,43 @@
         <v>0</v>
       </c>
       <c r="U30">
-        <v>20380000</v>
+        <v>19545000</v>
       </c>
       <c r="V30">
         <v>0</v>
       </c>
       <c r="W30">
-        <v>506280000</v>
+        <v>311821000</v>
       </c>
       <c r="X30">
-        <v>3964230000</v>
+        <v>2836885000</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>7790515000</v>
+        <v>6456930000</v>
       </c>
       <c r="AA30">
-        <v>944194000</v>
+        <v>986045000</v>
       </c>
       <c r="AB30">
-        <v>463005000</v>
+        <v>360061000</v>
       </c>
       <c r="AC30">
         <v>0</v>
       </c>
       <c r="AD30">
-        <v>340407000</v>
+        <v>312486000</v>
       </c>
       <c r="AE30">
-        <v>718920000</v>
+        <v>636329000</v>
       </c>
       <c r="AF30">
-        <v>2466526000</v>
+        <v>2294921000</v>
       </c>
       <c r="AG30">
-        <v>3307183000</v>
+        <v>2700130000</v>
       </c>
       <c r="AH30">
         <v>0</v>
@@ -5971,64 +5965,64 @@
         <v>0</v>
       </c>
       <c r="AJ30">
-        <v>251871000</v>
+        <v>184943000</v>
       </c>
       <c r="AK30">
-        <v>3559054000</v>
+        <v>2885073000</v>
       </c>
       <c r="AL30">
         <v>0</v>
       </c>
       <c r="AM30">
-        <v>2281788000</v>
+        <v>1869828000</v>
       </c>
       <c r="AN30">
-        <v>6025580000</v>
+        <v>5179994000</v>
       </c>
       <c r="AO30">
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>3436000</v>
+        <v>3432000</v>
       </c>
       <c r="AQ30">
-        <v>10374826000</v>
+        <v>10225253000</v>
       </c>
       <c r="AR30">
-        <v>-64909000</v>
+        <v>-55600000</v>
       </c>
       <c r="AS30">
-        <v>-8548418000</v>
+        <v>-8896149000</v>
       </c>
       <c r="AT30">
-        <v>1764935000</v>
+        <v>1276936000</v>
       </c>
       <c r="AU30">
-        <v>1764935000</v>
+        <v>1276936000</v>
       </c>
       <c r="AV30">
-        <v>7790515000</v>
+        <v>6456930000</v>
       </c>
       <c r="AW30">
         <v>0</v>
       </c>
       <c r="AX30">
-        <v>7790515000</v>
+        <v>6456930000</v>
       </c>
       <c r="AY30">
-        <v>406022000</v>
+        <v>0</v>
       </c>
       <c r="AZ30">
-        <v>3770188000</v>
+        <v>3060191000</v>
       </c>
       <c r="BA30">
-        <v>2769848000</v>
+        <v>1707207000</v>
       </c>
       <c r="BB30" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="BC30" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="31" spans="1:55">
@@ -6036,52 +6030,52 @@
         <v>84</v>
       </c>
       <c r="B31" s="2">
-        <v>44254</v>
+        <v>44618</v>
       </c>
       <c r="C31" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31" t="s">
         <v>86</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>87</v>
       </c>
-      <c r="E31" t="s">
-        <v>88</v>
-      </c>
       <c r="F31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G31" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H31" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I31" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="J31">
-        <v>1352984000</v>
+        <v>439496000</v>
       </c>
       <c r="K31">
         <v>0</v>
       </c>
       <c r="L31">
-        <v>1352984000</v>
+        <v>439496000</v>
       </c>
       <c r="M31">
-        <v>318100000</v>
+        <v>26500000</v>
       </c>
       <c r="N31">
-        <v>1671909000</v>
+        <v>1725410000</v>
       </c>
       <c r="O31">
-        <v>277052000</v>
+        <v>171748000</v>
       </c>
       <c r="P31">
-        <v>3620045000</v>
+        <v>2363154000</v>
       </c>
       <c r="Q31">
-        <v>2505519000</v>
+        <v>2590244000</v>
       </c>
       <c r="R31">
         <v>0</v>
@@ -6093,43 +6087,43 @@
         <v>0</v>
       </c>
       <c r="U31">
-        <v>19545000</v>
+        <v>19212000</v>
       </c>
       <c r="V31">
         <v>0</v>
       </c>
       <c r="W31">
-        <v>311821000</v>
+        <v>157962000</v>
       </c>
       <c r="X31">
-        <v>2836885000</v>
+        <v>2767418000</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>6456930000</v>
+        <v>5130572000</v>
       </c>
       <c r="AA31">
-        <v>986045000</v>
+        <v>872445000</v>
       </c>
       <c r="AB31">
-        <v>360061000</v>
+        <v>346506000</v>
       </c>
       <c r="AC31">
         <v>0</v>
       </c>
       <c r="AD31">
-        <v>312486000</v>
+        <v>326465000</v>
       </c>
       <c r="AE31">
-        <v>636329000</v>
+        <v>529371000</v>
       </c>
       <c r="AF31">
-        <v>2294921000</v>
+        <v>2074787000</v>
       </c>
       <c r="AG31">
-        <v>2700130000</v>
+        <v>2687778000</v>
       </c>
       <c r="AH31">
         <v>0</v>
@@ -6138,279 +6132,112 @@
         <v>0</v>
       </c>
       <c r="AJ31">
-        <v>184943000</v>
+        <v>193862000</v>
       </c>
       <c r="AK31">
-        <v>2885073000</v>
+        <v>2881640000</v>
       </c>
       <c r="AL31">
         <v>0</v>
       </c>
       <c r="AM31">
-        <v>1869828000</v>
+        <v>1854508000</v>
       </c>
       <c r="AN31">
-        <v>5179994000</v>
+        <v>4956427000</v>
       </c>
       <c r="AO31">
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>3432000</v>
+        <v>3441000</v>
       </c>
       <c r="AQ31">
-        <v>10225253000</v>
+        <v>9666091000</v>
       </c>
       <c r="AR31">
-        <v>-55600000</v>
+        <v>-46014000</v>
       </c>
       <c r="AS31">
-        <v>-8896149000</v>
+        <v>-9449373000</v>
       </c>
       <c r="AT31">
-        <v>1276936000</v>
+        <v>174145000</v>
       </c>
       <c r="AU31">
-        <v>1276936000</v>
+        <v>174145000</v>
       </c>
       <c r="AV31">
-        <v>6456930000</v>
+        <v>5130572000</v>
       </c>
       <c r="AW31">
         <v>0</v>
       </c>
       <c r="AX31">
-        <v>6456930000</v>
+        <v>5130572000</v>
       </c>
       <c r="AY31">
         <v>0</v>
       </c>
       <c r="AZ31">
-        <v>3060191000</v>
+        <v>3034284000</v>
       </c>
       <c r="BA31">
-        <v>1707207000</v>
+        <v>2594788000</v>
       </c>
       <c r="BB31" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="BC31" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="32" spans="1:55">
-      <c r="A32" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B32" s="2">
-        <v>44618</v>
-      </c>
-      <c r="C32" t="s">
-        <v>86</v>
-      </c>
-      <c r="D32" t="s">
-        <v>87</v>
-      </c>
-      <c r="E32" t="s">
-        <v>88</v>
-      </c>
-      <c r="F32" t="s">
-        <v>119</v>
-      </c>
-      <c r="G32" t="s">
-        <v>150</v>
-      </c>
-      <c r="H32" t="s">
-        <v>181</v>
-      </c>
-      <c r="I32" t="s">
-        <v>182</v>
-      </c>
-      <c r="J32">
-        <v>439496000</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32">
-        <v>439496000</v>
-      </c>
-      <c r="M32">
-        <v>26500000</v>
-      </c>
-      <c r="N32">
-        <v>1725410000</v>
-      </c>
-      <c r="O32">
-        <v>171748000</v>
-      </c>
-      <c r="P32">
-        <v>2363154000</v>
-      </c>
-      <c r="Q32">
-        <v>2590244000</v>
-      </c>
-      <c r="R32">
-        <v>0</v>
-      </c>
-      <c r="S32">
-        <v>0</v>
-      </c>
-      <c r="T32">
-        <v>0</v>
-      </c>
-      <c r="U32">
-        <v>19212000</v>
-      </c>
-      <c r="V32">
-        <v>0</v>
-      </c>
-      <c r="W32">
-        <v>157962000</v>
-      </c>
-      <c r="X32">
-        <v>2767418000</v>
-      </c>
-      <c r="Y32">
-        <v>0</v>
-      </c>
-      <c r="Z32">
-        <v>5130572000</v>
-      </c>
-      <c r="AA32">
-        <v>872445000</v>
-      </c>
-      <c r="AB32">
-        <v>346506000</v>
-      </c>
-      <c r="AC32">
-        <v>0</v>
-      </c>
-      <c r="AD32">
-        <v>326465000</v>
-      </c>
-      <c r="AE32">
-        <v>529371000</v>
-      </c>
-      <c r="AF32">
-        <v>2074787000</v>
-      </c>
-      <c r="AG32">
-        <v>2687778000</v>
-      </c>
-      <c r="AH32">
-        <v>0</v>
-      </c>
-      <c r="AI32">
-        <v>0</v>
-      </c>
-      <c r="AJ32">
-        <v>193862000</v>
-      </c>
-      <c r="AK32">
-        <v>2881640000</v>
-      </c>
-      <c r="AL32">
-        <v>0</v>
-      </c>
-      <c r="AM32">
-        <v>1854508000</v>
-      </c>
-      <c r="AN32">
-        <v>4956427000</v>
-      </c>
-      <c r="AO32">
-        <v>0</v>
-      </c>
-      <c r="AP32">
-        <v>3441000</v>
-      </c>
-      <c r="AQ32">
-        <v>9666091000</v>
-      </c>
-      <c r="AR32">
-        <v>-46014000</v>
-      </c>
-      <c r="AS32">
-        <v>-9449373000</v>
-      </c>
-      <c r="AT32">
-        <v>174145000</v>
-      </c>
-      <c r="AU32">
-        <v>174145000</v>
-      </c>
-      <c r="AV32">
-        <v>5130572000</v>
-      </c>
-      <c r="AW32">
-        <v>0</v>
-      </c>
-      <c r="AX32">
-        <v>5130572000</v>
-      </c>
-      <c r="AY32">
-        <v>0</v>
-      </c>
-      <c r="AZ32">
-        <v>3034284000</v>
-      </c>
-      <c r="BA32">
-        <v>2594788000</v>
-      </c>
-      <c r="BB32" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="BC32" s="3" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="BB10" r:id="rId1"/>
-    <hyperlink ref="BC10" r:id="rId2"/>
-    <hyperlink ref="BB11" r:id="rId3"/>
-    <hyperlink ref="BC11" r:id="rId4"/>
-    <hyperlink ref="BB13" r:id="rId5"/>
-    <hyperlink ref="BC13" r:id="rId6"/>
-    <hyperlink ref="BB14" r:id="rId7"/>
-    <hyperlink ref="BC14" r:id="rId8"/>
-    <hyperlink ref="BB15" r:id="rId9"/>
-    <hyperlink ref="BC15" r:id="rId10"/>
-    <hyperlink ref="BB16" r:id="rId11"/>
-    <hyperlink ref="BC16" r:id="rId12"/>
-    <hyperlink ref="BB17" r:id="rId13"/>
-    <hyperlink ref="BC17" r:id="rId14"/>
-    <hyperlink ref="BB18" r:id="rId15"/>
-    <hyperlink ref="BC18" r:id="rId16"/>
-    <hyperlink ref="BB19" r:id="rId17"/>
-    <hyperlink ref="BC19" r:id="rId18"/>
-    <hyperlink ref="BB20" r:id="rId19"/>
-    <hyperlink ref="BC20" r:id="rId20"/>
-    <hyperlink ref="BB21" r:id="rId21"/>
-    <hyperlink ref="BC21" r:id="rId22"/>
-    <hyperlink ref="BB22" r:id="rId23"/>
-    <hyperlink ref="BC22" r:id="rId24"/>
-    <hyperlink ref="BB23" r:id="rId25"/>
-    <hyperlink ref="BC23" r:id="rId26"/>
-    <hyperlink ref="BB24" r:id="rId27"/>
-    <hyperlink ref="BC24" r:id="rId28"/>
-    <hyperlink ref="BB25" r:id="rId29"/>
-    <hyperlink ref="BC25" r:id="rId30"/>
-    <hyperlink ref="BB26" r:id="rId31"/>
-    <hyperlink ref="BC26" r:id="rId32"/>
-    <hyperlink ref="BB27" r:id="rId33"/>
-    <hyperlink ref="BC27" r:id="rId34"/>
-    <hyperlink ref="BB28" r:id="rId35"/>
-    <hyperlink ref="BC28" r:id="rId36"/>
-    <hyperlink ref="BB29" r:id="rId37"/>
-    <hyperlink ref="BC29" r:id="rId38"/>
-    <hyperlink ref="BB30" r:id="rId39"/>
-    <hyperlink ref="BC30" r:id="rId40"/>
-    <hyperlink ref="BB31" r:id="rId41"/>
-    <hyperlink ref="BC31" r:id="rId42"/>
-    <hyperlink ref="BB32" r:id="rId43"/>
-    <hyperlink ref="BC32" r:id="rId44"/>
+    <hyperlink ref="BB9" r:id="rId1"/>
+    <hyperlink ref="BC9" r:id="rId2"/>
+    <hyperlink ref="BB10" r:id="rId3"/>
+    <hyperlink ref="BC10" r:id="rId4"/>
+    <hyperlink ref="BB12" r:id="rId5"/>
+    <hyperlink ref="BC12" r:id="rId6"/>
+    <hyperlink ref="BB13" r:id="rId7"/>
+    <hyperlink ref="BC13" r:id="rId8"/>
+    <hyperlink ref="BB14" r:id="rId9"/>
+    <hyperlink ref="BC14" r:id="rId10"/>
+    <hyperlink ref="BB15" r:id="rId11"/>
+    <hyperlink ref="BC15" r:id="rId12"/>
+    <hyperlink ref="BB16" r:id="rId13"/>
+    <hyperlink ref="BC16" r:id="rId14"/>
+    <hyperlink ref="BB17" r:id="rId15"/>
+    <hyperlink ref="BC17" r:id="rId16"/>
+    <hyperlink ref="BB18" r:id="rId17"/>
+    <hyperlink ref="BC18" r:id="rId18"/>
+    <hyperlink ref="BB19" r:id="rId19"/>
+    <hyperlink ref="BC19" r:id="rId20"/>
+    <hyperlink ref="BB20" r:id="rId21"/>
+    <hyperlink ref="BC20" r:id="rId22"/>
+    <hyperlink ref="BB21" r:id="rId23"/>
+    <hyperlink ref="BC21" r:id="rId24"/>
+    <hyperlink ref="BB22" r:id="rId25"/>
+    <hyperlink ref="BC22" r:id="rId26"/>
+    <hyperlink ref="BB23" r:id="rId27"/>
+    <hyperlink ref="BC23" r:id="rId28"/>
+    <hyperlink ref="BB24" r:id="rId29"/>
+    <hyperlink ref="BC24" r:id="rId30"/>
+    <hyperlink ref="BB25" r:id="rId31"/>
+    <hyperlink ref="BC25" r:id="rId32"/>
+    <hyperlink ref="BB26" r:id="rId33"/>
+    <hyperlink ref="BC26" r:id="rId34"/>
+    <hyperlink ref="BB27" r:id="rId35"/>
+    <hyperlink ref="BC27" r:id="rId36"/>
+    <hyperlink ref="BB28" r:id="rId37"/>
+    <hyperlink ref="BC28" r:id="rId38"/>
+    <hyperlink ref="BB29" r:id="rId39"/>
+    <hyperlink ref="BC29" r:id="rId40"/>
+    <hyperlink ref="BB30" r:id="rId41"/>
+    <hyperlink ref="BC30" r:id="rId42"/>
+    <hyperlink ref="BB31" r:id="rId43"/>
+    <hyperlink ref="BC31" r:id="rId44"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
